--- a/data/Main.xlsx
+++ b/data/Main.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cd3e99d6a3c3959/Documents/2018 UBC/MECH 431/MECH431/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhe\Documents\MECH431\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{17E4CA18-A677-450D-906F-78C6BAB476B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{1F47FE5D-9B00-4DCB-B2F9-BF714E3E50EF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D398601-D5C5-4012-9FE8-251220782895}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12360" xr2:uid="{B79B3171-F36B-48DE-8068-476A01F57370}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12360" activeTab="3" xr2:uid="{B79B3171-F36B-48DE-8068-476A01F57370}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Parts" sheetId="3" r:id="rId2"/>
+    <sheet name="Design Spec" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>Daily average demand</t>
   </si>
@@ -58,18 +60,178 @@
     <t>W per m^2</t>
   </si>
   <si>
-    <t>W per m^3</t>
-  </si>
-  <si>
-    <t>W per m^4</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Salvage value</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>Mounts</t>
+  </si>
+  <si>
+    <t>per m^2</t>
+  </si>
+  <si>
+    <t>Performance degrades 0.5%/year</t>
+  </si>
+  <si>
+    <t>Mounting configuration angles</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>Performance decrease</t>
+  </si>
+  <si>
+    <t>Soiling and Cleaning</t>
+  </si>
+  <si>
+    <t>Cleaning frequency</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Significant</t>
+  </si>
+  <si>
+    <t>&lt;- we can model it linearly at 2% per year</t>
+  </si>
+  <si>
+    <t>&lt;- clean every 1 year or 5 years</t>
+  </si>
+  <si>
+    <t>Cleaning cost</t>
+  </si>
+  <si>
+    <t>Fast rack</t>
+  </si>
+  <si>
+    <t>Adjustable angle</t>
+  </si>
+  <si>
+    <t>Mounting Calculations</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>MicroFIT</t>
+  </si>
+  <si>
+    <t>http://www.ieso.ca/get-involved/microfit/news-overview</t>
+  </si>
+  <si>
+    <t>for generating over 10kW of energy</t>
+  </si>
+  <si>
+    <t>https://kubyenergy.ca/blog/the-cost-of-solar-panels</t>
+  </si>
+  <si>
+    <t>Available Roofspace</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>City of edmonton rebate</t>
+  </si>
+  <si>
+    <t>https://kubyenergy.ca/blog/edmonton-solar-power-rebate</t>
+  </si>
+  <si>
+    <t>Alberta rebate</t>
+  </si>
+  <si>
+    <t>https://kubyenergy.ca/blog/alberta-residential-and-commercial-solar-power-rebate</t>
+  </si>
+  <si>
+    <t>Change for climate resources</t>
+  </si>
+  <si>
+    <t>https://www.edmonton.ca/city_government/documents/PDF/HomeGuide-web.pdf</t>
+  </si>
+  <si>
+    <t>http://ace.edmonton.ca/energuide/guides/</t>
+  </si>
+  <si>
+    <t>https://changeforclimate.ca/programs</t>
+  </si>
+  <si>
+    <t>https://www.edmonton.ca/city_government/environmental_stewardship/solar-energy.aspx</t>
+  </si>
+  <si>
+    <t>https://www.edmonton.ca/city_government/documents/PDF/TinyExplanation-SolarInEdm.pdf</t>
+  </si>
+  <si>
+    <t>https://kubyenergy.ca/how-much-do-solar-panels-cost</t>
+  </si>
+  <si>
+    <t>Source of capital</t>
+  </si>
+  <si>
+    <t>Options: cash or loan</t>
+  </si>
+  <si>
+    <t>Rule of thumb energy density</t>
+  </si>
+  <si>
+    <t>W per sqft</t>
+  </si>
+  <si>
+    <t>Failure rate of 0.05%</t>
+  </si>
+  <si>
+    <t>Usually solar warranty of 25 years (free replacement til then)</t>
+  </si>
+  <si>
+    <t>Solar cells output density is already limited by the physics (expect neglegible advancements in future)</t>
+  </si>
+  <si>
+    <t>Solar cost and efficiency over time</t>
+  </si>
+  <si>
+    <t>https://news.energysage.com/solar-panel-efficiency-cost-over-time/</t>
+  </si>
+  <si>
+    <t>Solar price index</t>
+  </si>
+  <si>
+    <t>https://www.pv-magazine.com/features/investors/module-price-index/</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Solar_cell_efficiency</t>
+  </si>
+  <si>
+    <t>growth rate</t>
+  </si>
+  <si>
+    <t>&lt;- eff in 2058</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -112,21 +274,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,25 +609,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B542EB08-334C-4550-9EF0-81DE65DA2577}">
-  <dimension ref="B2:H8"/>
+  <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,70 +645,292 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="M6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="2">
         <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>200</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>43</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>200</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>43</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10">
         <v>300</v>
       </c>
-      <c r="H8" t="s">
-        <v>11</v>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>43</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12">
+        <v>90</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>53</v>
+      </c>
+      <c r="N13" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14">
+        <v>45</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="7"/>
+      <c r="M15">
+        <v>27</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>18</v>
+      </c>
+      <c r="N16" s="4">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>14</v>
+      </c>
+      <c r="N17" s="4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="P22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="2">
+        <v>10</v>
+      </c>
+      <c r="O24" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:B8"/>
+  <mergeCells count="5">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -538,6 +938,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E617B2-1EC1-4A99-9869-958C4E9B72BB}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8565E299-71DC-453F-8B55-30F52A05B039}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -547,4 +967,192 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B6EDC1-B39B-4E7B-8F88-7A2BF6E72A01}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24">
+        <v>2018</v>
+      </c>
+      <c r="K24">
+        <v>2008</v>
+      </c>
+      <c r="L24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="L25" s="8">
+        <f>(J25/K25)^(1/9)-1</f>
+        <v>1.1599738260738901E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27">
+        <v>2018</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28">
+        <v>2028</v>
+      </c>
+      <c r="K28" s="8">
+        <f>K27*(1+$L$25)^10</f>
+        <v>0.39839642816971721</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>2038</v>
+      </c>
+      <c r="K29" s="8">
+        <f t="shared" ref="K29:K31" si="0">K28*(1+$L$25)^10</f>
+        <v>0.4470977858546159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>2048</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.50175256599174112</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>2058</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.56308853553830984</v>
+      </c>
+      <c r="L31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Main.xlsx
+++ b/data/Main.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhe\Documents\MECH431\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moochster\OneDrive\Documents\2018 UBC\MECH 431\MECH431\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D398601-D5C5-4012-9FE8-251220782895}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{3D398601-D5C5-4012-9FE8-251220782895}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{7E82490C-D8E3-419E-8188-6A44EBBFA76C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12360" activeTab="3" xr2:uid="{B79B3171-F36B-48DE-8068-476A01F57370}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12360" activeTab="5" xr2:uid="{B79B3171-F36B-48DE-8068-476A01F57370}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
     <sheet name="Parts" sheetId="3" r:id="rId2"/>
     <sheet name="Design Spec" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Analysis (Nothing)" sheetId="5" r:id="rId5"/>
+    <sheet name="Weather Data" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>Daily average demand</t>
   </si>
@@ -223,6 +225,39 @@
   </si>
   <si>
     <t>&lt;- eff in 2058</t>
+  </si>
+  <si>
+    <t>This is the analysis for doing nothing</t>
+  </si>
+  <si>
+    <t>Analysis period</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Edmonton Weather Data</t>
+  </si>
+  <si>
+    <t>Longest Day</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>Sunrise</t>
+  </si>
+  <si>
+    <t>Shortest Day</t>
+  </si>
+  <si>
+    <t>Sun highest</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>Sun lowest</t>
   </si>
 </sst>
 </file>
@@ -230,8 +265,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -276,23 +311,24 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -612,7 +648,7 @@
   <dimension ref="B2:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,25 +707,25 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
@@ -724,7 +760,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+      <c r="B9" s="7"/>
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -760,7 +796,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+      <c r="B10" s="7"/>
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -846,7 +882,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
+      <c r="D15" s="5"/>
       <c r="M15">
         <v>27</v>
       </c>
@@ -973,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B6EDC1-B39B-4E7B-8F88-7A2BF6E72A01}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -1088,13 +1124,13 @@
       <c r="B25" t="s">
         <v>62</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="5">
         <v>0.35499999999999998</v>
       </c>
       <c r="K25" s="3">
         <v>0.32</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="6">
         <f>(J25/K25)^(1/9)-1</f>
         <v>1.1599738260738901E-2</v>
       </c>
@@ -1106,7 +1142,7 @@
       <c r="J27">
         <v>2018</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="5">
         <v>0.35499999999999998</v>
       </c>
     </row>
@@ -1117,7 +1153,7 @@
       <c r="J28">
         <v>2028</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="6">
         <f>K27*(1+$L$25)^10</f>
         <v>0.39839642816971721</v>
       </c>
@@ -1126,7 +1162,7 @@
       <c r="J29">
         <v>2038</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="6">
         <f t="shared" ref="K29:K31" si="0">K28*(1+$L$25)^10</f>
         <v>0.4470977858546159</v>
       </c>
@@ -1135,7 +1171,7 @@
       <c r="J30">
         <v>2048</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="6">
         <f t="shared" si="0"/>
         <v>0.50175256599174112</v>
       </c>
@@ -1144,7 +1180,7 @@
       <c r="J31">
         <v>2058</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="6">
         <f t="shared" si="0"/>
         <v>0.56308853553830984</v>
       </c>
@@ -1155,4 +1191,135 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C03071-2F06-4341-ACA6-62B4A36D3BF8}">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385E2F3A-9060-42BF-ADCF-A98F8EA8DC7E}">
+  <dimension ref="A2:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>7.6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Main.xlsx
+++ b/data/Main.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moochster\OneDrive\Documents\2018 UBC\MECH 431\MECH431\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{3D398601-D5C5-4012-9FE8-251220782895}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{7E82490C-D8E3-419E-8188-6A44EBBFA76C}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="13_ncr:1_{3D398601-D5C5-4012-9FE8-251220782895}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{DFD40487-6879-45D3-915C-305E212169B4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12360" activeTab="5" xr2:uid="{B79B3171-F36B-48DE-8068-476A01F57370}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="28800" windowHeight="12360" activeTab="5" xr2:uid="{B79B3171-F36B-48DE-8068-476A01F57370}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
-    <sheet name="Parts" sheetId="3" r:id="rId2"/>
-    <sheet name="Design Spec" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
-    <sheet name="Analysis (Nothing)" sheetId="5" r:id="rId5"/>
-    <sheet name="Weather Data" sheetId="6" r:id="rId6"/>
+    <sheet name="Grid Power" sheetId="7" r:id="rId2"/>
+    <sheet name="Parts" sheetId="3" r:id="rId3"/>
+    <sheet name="Design Spec" sheetId="2" r:id="rId4"/>
+    <sheet name="Sources" sheetId="4" r:id="rId5"/>
+    <sheet name="Analysis (Nothing)" sheetId="5" r:id="rId6"/>
+    <sheet name="Weather Data" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>Daily average demand</t>
   </si>
@@ -258,6 +259,66 @@
   </si>
   <si>
     <t>Sun lowest</t>
+  </si>
+  <si>
+    <t>This contains data for grid electricity</t>
+  </si>
+  <si>
+    <t>Electricity Cost</t>
+  </si>
+  <si>
+    <t>Historical</t>
+  </si>
+  <si>
+    <t>Projected</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Already accounting for inflation?</t>
+  </si>
+  <si>
+    <t>5 year analysis</t>
+  </si>
+  <si>
+    <t>20 year analysis</t>
+  </si>
+  <si>
+    <t>40 year analysis</t>
+  </si>
+  <si>
+    <t>Accounting for inflation rate and other factors</t>
+  </si>
+  <si>
+    <t>Energy Cost</t>
+  </si>
+  <si>
+    <t>Admin Fees</t>
+  </si>
+  <si>
+    <t>[$]</t>
+  </si>
+  <si>
+    <t>[$/kWh]</t>
+  </si>
+  <si>
+    <t>ATCF MARR</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>[kWh]</t>
+  </si>
+  <si>
+    <t>Energy cost (real)</t>
+  </si>
+  <si>
+    <t>Energy cost (nominal)</t>
+  </si>
+  <si>
+    <t>Inflation Rate</t>
   </si>
 </sst>
 </file>
@@ -314,7 +375,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -322,13 +383,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -346,6 +408,983 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grid Power'!$D$7:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1899999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6820000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2580000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0459999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8339999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10621999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12198000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14562</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1535</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16138</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16925999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17713999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.18501999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.20077999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20866000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.21654000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.22442000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.23230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.24018</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.24806</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25594</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.26382</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.2717</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.27958</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.28745999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.29533999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.30321999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.31109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.31897999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.32685999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.33473999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.34261999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.35049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.35837999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36625999999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.37413999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE69-4798-B0C6-F534CACA12E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="470376112"/>
+        <c:axId val="466458384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="470376112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466458384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="466458384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470376112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE8B5B1-BA38-481C-9E83-CD415104928B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -645,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B542EB08-334C-4550-9EF0-81DE65DA2577}">
-  <dimension ref="B2:P24"/>
+  <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,32 +1746,32 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -760,12 +1799,12 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -796,12 +1835,12 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -898,7 +1937,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="17" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="M17">
         <v>14</v>
       </c>
@@ -906,12 +1945,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
         <v>23</v>
       </c>
@@ -919,7 +1958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="M21" t="s">
         <v>24</v>
       </c>
@@ -930,7 +1969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="M22" t="s">
         <v>25</v>
       </c>
@@ -941,7 +1980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
         <v>26</v>
       </c>
@@ -949,7 +1988,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="M24" t="s">
         <v>29</v>
       </c>
@@ -958,6 +1997,27 @@
       </c>
       <c r="O24" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -974,6 +2034,580 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05959F5E-0651-4121-8F8F-CF295634B784}">
+  <dimension ref="B2:K52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7">
+        <v>2014</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>2015</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>2016</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
+        <f>D11*365.25*19.7+12*10</f>
+        <v>565.39680749999991</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12">
+        <v>2019</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.6820000000000004E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>2021</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8.2580000000000001E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9.0459999999999999E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>2023</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9.8339999999999997E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>2024</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.10621999999999999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>2025</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>2026</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.12198000000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>2027</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.12986</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>2028</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.13774</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>2029</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.14562</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>2030</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.1535</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>2031</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.16138</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>2032</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.16925999999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>2033</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.17713999999999999</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>2034</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.18501999999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>2035</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>2036</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.20077999999999999</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>2037</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.20866000000000001</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>2038</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.21654000000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>2039</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.22442000000000001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>2040</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>2041</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.24018</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>2042</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.24806</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>2043</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.25594</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>2044</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.26382</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>2045</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.2717</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>2046</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.27958</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>2047</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.28745999999999999</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>2048</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.29533999999999999</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>2049</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.30321999999999999</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>2050</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.31109999999999999</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>2051</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.31897999999999999</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>2052</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.32685999999999998</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>2053</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.33473999999999998</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>2054</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.34261999999999998</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>2055</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.35049999999999998</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>2056</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.35837999999999998</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>2057</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.36625999999999997</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>2058</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.37413999999999997</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E617B2-1EC1-4A99-9869-958C4E9B72BB}">
   <dimension ref="B2"/>
   <sheetViews>
@@ -993,7 +2627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8565E299-71DC-453F-8B55-30F52A05B039}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1005,7 +2639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B6EDC1-B39B-4E7B-8F88-7A2BF6E72A01}">
   <dimension ref="A1:L31"/>
   <sheetViews>
@@ -1193,25 +2827,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C03071-2F06-4341-ACA6-62B4A36D3BF8}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>66</v>
       </c>
@@ -1221,21 +2857,737 @@
       <c r="D3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>67</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <f>G5*'Grid Power'!D11+12*'Grid Power'!E11</f>
+        <v>60</v>
+      </c>
+      <c r="I5" s="2">
+        <f>H5*(1+Constants!$D$25)^'Analysis (Nothing)'!F5</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>19.7*365.25</f>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H6" s="10">
+        <f>G6*'Grid Power'!D12+12*'Grid Power'!E12</f>
+        <v>540.7982985000001</v>
+      </c>
+      <c r="I6" s="2">
+        <f>H6*(1+Constants!$D$25)^'Analysis (Nothing)'!F6</f>
+        <v>557.02224745500007</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G45" si="0">19.7*365.25</f>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H7" s="10">
+        <f>G7*'Grid Power'!D13+12*'Grid Power'!E13</f>
+        <v>597.49824750000005</v>
+      </c>
+      <c r="I7" s="2">
+        <f>H7*(1+Constants!$D$25)^'Analysis (Nothing)'!F7</f>
+        <v>633.88589077275003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H8" s="10">
+        <f>G8*'Grid Power'!D14+12*'Grid Power'!E14</f>
+        <v>654.19819649999999</v>
+      </c>
+      <c r="I8" s="2">
+        <f>H8*(1+Constants!$D$25)^'Analysis (Nothing)'!F8</f>
+        <v>714.86003266685555</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H9" s="10">
+        <f>G9*'Grid Power'!D15+12*'Grid Power'!E15</f>
+        <v>710.89814550000006</v>
+      </c>
+      <c r="I9" s="2">
+        <f>H9*(1+Constants!$D$25)^'Analysis (Nothing)'!F9</f>
+        <v>800.12212577291189</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H10" s="10">
+        <f>G10*'Grid Power'!D16+12*'Grid Power'!E16</f>
+        <v>767.5980945</v>
+      </c>
+      <c r="I10" s="2">
+        <f>H10*(1+Constants!$D$25)^'Analysis (Nothing)'!F10</f>
+        <v>889.8565704359313</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H11" s="10">
+        <f>G11*'Grid Power'!D17+12*'Grid Power'!E17</f>
+        <v>824.29804349999995</v>
+      </c>
+      <c r="I11" s="2">
+        <f>H11*(1+Constants!$D$25)^'Analysis (Nothing)'!F11</f>
+        <v>984.25497186553639</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H12" s="10">
+        <f>G12*'Grid Power'!D18+12*'Grid Power'!E18</f>
+        <v>880.99799250000001</v>
+      </c>
+      <c r="I12" s="2">
+        <f>H12*(1+Constants!$D$25)^'Analysis (Nothing)'!F12</f>
+        <v>1083.5164064675257</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H13" s="10">
+        <f>G13*'Grid Power'!D19+12*'Grid Power'!E19</f>
+        <v>937.69794150000007</v>
+      </c>
+      <c r="I13" s="2">
+        <f>H13*(1+Constants!$D$25)^'Analysis (Nothing)'!F13</f>
+        <v>1187.8476976709551</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H14" s="10">
+        <f>G14*'Grid Power'!D20+12*'Grid Power'!E20</f>
+        <v>994.39789050000002</v>
+      </c>
+      <c r="I14" s="2">
+        <f>H14*(1+Constants!$D$25)^'Analysis (Nothing)'!F14</f>
+        <v>1297.4637015807693</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H15" s="10">
+        <f>G15*'Grid Power'!D21+12*'Grid Power'!E21</f>
+        <v>1051.0978395000002</v>
+      </c>
+      <c r="I15" s="2">
+        <f>H15*(1+Constants!$D$25)^'Analysis (Nothing)'!F15</f>
+        <v>1412.587602797269</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H16" s="10">
+        <f>G16*'Grid Power'!D22+12*'Grid Power'!E22</f>
+        <v>1107.7977885</v>
+      </c>
+      <c r="I16" s="2">
+        <f>H16*(1+Constants!$D$25)^'Analysis (Nothing)'!F16</f>
+        <v>1533.4512207553357</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H17" s="10">
+        <f>G17*'Grid Power'!D23+12*'Grid Power'!E23</f>
+        <v>1164.4977375000001</v>
+      </c>
+      <c r="I17" s="2">
+        <f>H17*(1+Constants!$D$25)^'Analysis (Nothing)'!F17</f>
+        <v>1660.2953269483687</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H18" s="10">
+        <f>G18*'Grid Power'!D24+12*'Grid Power'!E24</f>
+        <v>1221.1976864999999</v>
+      </c>
+      <c r="I18" s="2">
+        <f>H18*(1+Constants!$D$25)^'Analysis (Nothing)'!F18</f>
+        <v>1793.3699734143036</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H19" s="10">
+        <f>G19*'Grid Power'!D25+12*'Grid Power'!E25</f>
+        <v>1277.8976355</v>
+      </c>
+      <c r="I19" s="2">
+        <f>H19*(1+Constants!$D$25)^'Analysis (Nothing)'!F19</f>
+        <v>1932.934832873942</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H20" s="10">
+        <f>G20*'Grid Power'!D26+12*'Grid Power'!E26</f>
+        <v>1334.5975845</v>
+      </c>
+      <c r="I20" s="2">
+        <f>H20*(1+Constants!$D$25)^'Analysis (Nothing)'!F20</f>
+        <v>2079.2595509250855</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H21" s="10">
+        <f>G21*'Grid Power'!D27+12*'Grid Power'!E27</f>
+        <v>1391.2975334999999</v>
+      </c>
+      <c r="I21" s="2">
+        <f>H21*(1+Constants!$D$25)^'Analysis (Nothing)'!F21</f>
+        <v>2232.6241107097103</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H22" s="10">
+        <f>G22*'Grid Power'!D28+12*'Grid Power'!E28</f>
+        <v>1447.9974824999999</v>
+      </c>
+      <c r="I22" s="2">
+        <f>H22*(1+Constants!$D$25)^'Analysis (Nothing)'!F22</f>
+        <v>2393.3192104855807</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H23" s="10">
+        <f>G23*'Grid Power'!D29+12*'Grid Power'!E29</f>
+        <v>1504.6974315</v>
+      </c>
+      <c r="I23" s="2">
+        <f>H23*(1+Constants!$D$25)^'Analysis (Nothing)'!F23</f>
+        <v>2561.6466545483645</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H24" s="10">
+        <f>G24*'Grid Power'!D30+12*'Grid Power'!E30</f>
+        <v>1561.3973805000001</v>
+      </c>
+      <c r="I24" s="2">
+        <f>H24*(1+Constants!$D$25)^'Analysis (Nothing)'!F24</f>
+        <v>2737.9197579654783</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H25" s="10">
+        <f>G25*'Grid Power'!D31+12*'Grid Power'!E31</f>
+        <v>1618.0973295000001</v>
+      </c>
+      <c r="I25" s="2">
+        <f>H25*(1+Constants!$D$25)^'Analysis (Nothing)'!F25</f>
+        <v>2922.4637655985257</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>21</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H26" s="10">
+        <f>G26*'Grid Power'!D32+12*'Grid Power'!E32</f>
+        <v>1674.7972785000002</v>
+      </c>
+      <c r="I26" s="2">
+        <f>H26*(1+Constants!$D$25)^'Analysis (Nothing)'!F26</f>
+        <v>3115.6162859073866</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>22</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H27" s="10">
+        <f>G27*'Grid Power'!D33+12*'Grid Power'!E33</f>
+        <v>1731.4972275</v>
+      </c>
+      <c r="I27" s="2">
+        <f>H27*(1+Constants!$D$25)^'Analysis (Nothing)'!F27</f>
+        <v>3317.7277400457401</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>23</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H28" s="10">
+        <f>G28*'Grid Power'!D34+12*'Grid Power'!E34</f>
+        <v>1788.1971765000001</v>
+      </c>
+      <c r="I28" s="2">
+        <f>H28*(1+Constants!$D$25)^'Analysis (Nothing)'!F28</f>
+        <v>3529.1618267750791</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>24</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H29" s="10">
+        <f>G29*'Grid Power'!D35+12*'Grid Power'!E35</f>
+        <v>1844.8971255000001</v>
+      </c>
+      <c r="I29" s="2">
+        <f>H29*(1+Constants!$D$25)^'Analysis (Nothing)'!F29</f>
+        <v>3750.2960037421367</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H30" s="10">
+        <f>G30*'Grid Power'!D36+12*'Grid Power'!E36</f>
+        <v>1901.5970745</v>
+      </c>
+      <c r="I30" s="2">
+        <f>H30*(1+Constants!$D$25)^'Analysis (Nothing)'!F30</f>
+        <v>3981.52198568312</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>26</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H31" s="10">
+        <f>G31*'Grid Power'!D37+12*'Grid Power'!E37</f>
+        <v>1958.2970235</v>
+      </c>
+      <c r="I31" s="2">
+        <f>H31*(1+Constants!$D$25)^'Analysis (Nothing)'!F31</f>
+        <v>4223.2462601371953</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>27</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H32" s="10">
+        <f>G32*'Grid Power'!D38+12*'Grid Power'!E38</f>
+        <v>2014.9969725000001</v>
+      </c>
+      <c r="I32" s="2">
+        <f>H32*(1+Constants!$D$25)^'Analysis (Nothing)'!F32</f>
+        <v>4475.8906212713991</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>28</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H33" s="10">
+        <f>G33*'Grid Power'!D39+12*'Grid Power'!E39</f>
+        <v>2071.6969214999999</v>
+      </c>
+      <c r="I33" s="2">
+        <f>H33*(1+Constants!$D$25)^'Analysis (Nothing)'!F33</f>
+        <v>4739.892722439532</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>29</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H34" s="10">
+        <f>G34*'Grid Power'!D40+12*'Grid Power'!E40</f>
+        <v>2128.3968705000002</v>
+      </c>
+      <c r="I34" s="2">
+        <f>H34*(1+Constants!$D$25)^'Analysis (Nothing)'!F34</f>
+        <v>5015.7066481186093</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H35" s="10">
+        <f>G35*'Grid Power'!D41+12*'Grid Power'!E41</f>
+        <v>2185.0968195</v>
+      </c>
+      <c r="I35" s="2">
+        <f>H35*(1+Constants!$D$25)^'Analysis (Nothing)'!F35</f>
+        <v>5303.8035058882342</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>31</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H36" s="10">
+        <f>G36*'Grid Power'!D42+12*'Grid Power'!E42</f>
+        <v>2241.7967684999999</v>
+      </c>
+      <c r="I36" s="2">
+        <f>H36*(1+Constants!$D$25)^'Analysis (Nothing)'!F36</f>
+        <v>5604.6720391407316</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H37" s="10">
+        <f>G37*'Grid Power'!D43+12*'Grid Power'!E43</f>
+        <v>2298.4967175000002</v>
+      </c>
+      <c r="I37" s="2">
+        <f>H37*(1+Constants!$D$25)^'Analysis (Nothing)'!F37</f>
+        <v>5918.8192612330786</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>33</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H38" s="10">
+        <f>G38*'Grid Power'!D44+12*'Grid Power'!E44</f>
+        <v>2355.1966665</v>
+      </c>
+      <c r="I38" s="2">
+        <f>H38*(1+Constants!$D$25)^'Analysis (Nothing)'!F38</f>
+        <v>6246.7711118157395</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>34</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H39" s="10">
+        <f>G39*'Grid Power'!D45+12*'Grid Power'!E45</f>
+        <v>2411.8966154999998</v>
+      </c>
+      <c r="I39" s="2">
+        <f>H39*(1+Constants!$D$25)^'Analysis (Nothing)'!F39</f>
+        <v>6589.0731360982491</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>35</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H40" s="10">
+        <f>G40*'Grid Power'!D46+12*'Grid Power'!E46</f>
+        <v>2468.5965645000001</v>
+      </c>
+      <c r="I40" s="2">
+        <f>H40*(1+Constants!$D$25)^'Analysis (Nothing)'!F40</f>
+        <v>6946.2911878370787</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>36</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H41" s="10">
+        <f>G41*'Grid Power'!D47+12*'Grid Power'!E47</f>
+        <v>2525.2965134999999</v>
+      </c>
+      <c r="I41" s="2">
+        <f>H41*(1+Constants!$D$25)^'Analysis (Nothing)'!F41</f>
+        <v>7319.012156857747</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>37</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H42" s="10">
+        <f>G42*'Grid Power'!D48+12*'Grid Power'!E48</f>
+        <v>2581.9964624999998</v>
+      </c>
+      <c r="I42" s="2">
+        <f>H42*(1+Constants!$D$25)^'Analysis (Nothing)'!F42</f>
+        <v>7707.8447219506006</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>38</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H43" s="10">
+        <f>G43*'Grid Power'!D49+12*'Grid Power'!E49</f>
+        <v>2638.6964115000001</v>
+      </c>
+      <c r="I43" s="2">
+        <f>H43*(1+Constants!$D$25)^'Analysis (Nothing)'!F43</f>
+        <v>8113.4201300078566</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>39</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H44" s="10">
+        <f>G44*'Grid Power'!D50+12*'Grid Power'!E50</f>
+        <v>2695.3963604999999</v>
+      </c>
+      <c r="I44" s="2">
+        <f>H44*(1+Constants!$D$25)^'Analysis (Nothing)'!F44</f>
+        <v>8536.3930022987915</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>40</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>7195.4250000000002</v>
+      </c>
+      <c r="H45" s="10">
+        <f>G45*'Grid Power'!D51+12*'Grid Power'!E51</f>
+        <v>2752.0963094999997</v>
+      </c>
+      <c r="I45" s="2">
+        <f>H45*(1+Constants!$D$25)^'Analysis (Nothing)'!F45</f>
+        <v>8977.4421688101738</v>
       </c>
     </row>
   </sheetData>
@@ -1243,11 +3595,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385E2F3A-9060-42BF-ADCF-A98F8EA8DC7E}">
   <dimension ref="A2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1275,7 +3627,7 @@
       <c r="F5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>0.21111111111111111</v>
       </c>
       <c r="I5" t="s">
@@ -1301,7 +3653,7 @@
       <c r="F6" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>0.36805555555555558</v>
       </c>
       <c r="I6" t="s">

--- a/data/Main.xlsx
+++ b/data/Main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muchen/OneDrive/Documents/2018 UBC/MECH 431/MECH431/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhe\Documents\MECH431\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638B3480-F7C5-5547-828E-8AAA4F7167B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D03C9B-CC9C-4D57-A294-661E30B313B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20100" tabRatio="582" activeTab="6" xr2:uid="{B79B3171-F36B-48DE-8068-476A01F57370}"/>
+    <workbookView xWindow="0" yWindow="1785" windowWidth="38400" windowHeight="20100" tabRatio="582" activeTab="7" xr2:uid="{B79B3171-F36B-48DE-8068-476A01F57370}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,9 @@
     <sheet name="Sources" sheetId="4" r:id="rId12"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -117,8 +111,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="J52" authorId="0" shapeId="0" xr:uid="{12D4DF5B-590C-440D-A7CB-9C8E4F8B6D5B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This can act as the marginal operating cost</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="236">
   <si>
     <t>Daily average demand</t>
   </si>
@@ -330,9 +358,6 @@
     <t>[$/kWh]</t>
   </si>
   <si>
-    <t>ATCF MARR</t>
-  </si>
-  <si>
     <t>Usage</t>
   </si>
   <si>
@@ -375,9 +400,6 @@
     <t>Replacement analysis for the panels as they degrade</t>
   </si>
   <si>
-    <t>Use panel's lost efficiency as opportunity cost</t>
-  </si>
-  <si>
     <t>Use increse in technilogical advantage as added benefit for the challenger EUAC</t>
   </si>
   <si>
@@ -765,9 +787,6 @@
     <t>Relative Benefit</t>
   </si>
   <si>
-    <t>Net profit</t>
-  </si>
-  <si>
     <t>[$ nominal]</t>
   </si>
   <si>
@@ -775,21 +794,82 @@
   </si>
   <si>
     <t>In losses</t>
+  </si>
+  <si>
+    <t>EAUC</t>
+  </si>
+  <si>
+    <t>We can compute the real IRR, then find the market IRR</t>
+  </si>
+  <si>
+    <t>ATCF Market MARR</t>
+  </si>
+  <si>
+    <t>Use panel's lost efficiency as opportunity cost -&gt; marginal cost</t>
+  </si>
+  <si>
+    <t>Assuming efficiency doesn't get better</t>
+  </si>
+  <si>
+    <t>Net CF</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Lost energy</t>
+  </si>
+  <si>
+    <t>Opp. Cost</t>
+  </si>
+  <si>
+    <t>Replacement Analysis</t>
+  </si>
+  <si>
+    <t>Challenger</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>&lt;- lowest</t>
+  </si>
+  <si>
+    <t>EUAC</t>
+  </si>
+  <si>
+    <t>Initial cost</t>
+  </si>
+  <si>
+    <t>Def. Marg. Cost</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>PIAZZA STUFF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="183" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="174" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,12 +936,26 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1026,7 +1120,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1123,6 +1217,34 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1183,6 +1305,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1192,39 +1323,33 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -4033,6 +4158,59 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389458F5-3DFB-4922-8800-DDABF57AFC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6343650" y="15240000"/>
+          <a:ext cx="933450" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4338,31 +4516,31 @@
   </sheetPr>
   <dimension ref="B2:V36"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A16" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4373,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
@@ -4384,9 +4562,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -4395,37 +4573,37 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75" t="s">
+      <c r="E8" s="95"/>
+      <c r="F8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75" t="s">
+      <c r="G8" s="95"/>
+      <c r="H8" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75" t="s">
+      <c r="I8" s="95"/>
+      <c r="J8" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="75"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="74" t="s">
+      <c r="K8" s="95"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="94" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
@@ -4456,8 +4634,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="74"/>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="94"/>
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -4486,8 +4664,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="74"/>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="94"/>
       <c r="C11" t="s">
         <v>7</v>
       </c>
@@ -4519,7 +4697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -4536,7 +4714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -4547,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M14">
         <v>53</v>
       </c>
@@ -4555,7 +4733,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>51</v>
       </c>
@@ -4572,7 +4750,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M16">
         <v>35</v>
       </c>
@@ -4580,15 +4758,15 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D17" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M17">
         <v>27</v>
@@ -4597,15 +4775,15 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D18" s="5">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
@@ -4617,12 +4795,12 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>400</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M19">
         <v>14</v>
@@ -4631,12 +4809,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
       <c r="M21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
       <c r="M22" t="s">
         <v>22</v>
       </c>
@@ -4644,7 +4822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
         <v>23</v>
       </c>
@@ -4655,7 +4833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
       <c r="M24" t="s">
         <v>24</v>
       </c>
@@ -4666,7 +4844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
       <c r="M25" t="s">
         <v>25</v>
       </c>
@@ -4674,7 +4852,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
       <c r="M26" t="s">
         <v>28</v>
       </c>
@@ -4685,55 +4863,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="D28" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>66</v>
       </c>
       <c r="M29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S29" s="2">
         <v>10000</v>
       </c>
       <c r="T29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U29" s="9">
         <f>(S30-S29)/2</f>
         <v>3000</v>
       </c>
       <c r="V29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="3">
         <v>0.1</v>
       </c>
       <c r="E30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M30" t="s">
         <v>35</v>
@@ -4742,18 +4920,18 @@
         <v>16000</v>
       </c>
       <c r="T30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D31" s="3">
         <v>0.05</v>
       </c>
       <c r="M31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N31" s="3">
         <v>0.35</v>
@@ -4762,57 +4940,57 @@
         <v>46000</v>
       </c>
       <c r="T31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
       <c r="M32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N32" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D33" s="9">
         <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N33" s="3">
         <v>0.23</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N34" s="3">
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="M35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N35" s="3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="N36" s="3"/>
     </row>
   </sheetData>
@@ -4840,147 +5018,147 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="94" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="117" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="116" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="97" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="116" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="76"/>
+        <v>135</v>
+      </c>
+      <c r="H4" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="96"/>
       <c r="M4" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="P4" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="16"/>
       <c r="G5" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="95">
+        <v>136</v>
+      </c>
+      <c r="H5" s="118">
         <v>43</v>
       </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95">
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118">
         <v>43</v>
       </c>
-      <c r="L5" s="95"/>
+      <c r="L5" s="118"/>
       <c r="M5" s="60"/>
       <c r="N5" s="60"/>
       <c r="O5" s="60"/>
       <c r="P5" s="69"/>
       <c r="Q5" s="69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R5" s="69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
       <c r="F6" s="16"/>
       <c r="G6" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="96">
+        <v>137</v>
+      </c>
+      <c r="H6" s="119">
         <v>0.3</v>
       </c>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96">
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119">
         <v>0.3</v>
       </c>
-      <c r="L6" s="96"/>
+      <c r="L6" s="119"/>
       <c r="M6" s="69"/>
       <c r="N6" s="69"/>
       <c r="O6" s="69"/>
       <c r="P6" s="69"/>
       <c r="Q6" s="69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R6" s="69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="76"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="96"/>
       <c r="C7" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>68</v>
@@ -4988,22 +5166,22 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="L7" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>68</v>
@@ -5021,9 +5199,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8">
         <v>35</v>
@@ -5076,7 +5254,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5090,14 +5268,14 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -5105,72 +5283,72 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>48</v>
       </c>
@@ -5178,12 +5356,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>55</v>
       </c>
@@ -5197,7 +5375,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>58</v>
       </c>
@@ -5212,7 +5390,7 @@
         <v>1.1599738260738901E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -5223,7 +5401,7 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -5235,7 +5413,7 @@
         <v>0.39839642816971721</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J29">
         <v>2038</v>
       </c>
@@ -5244,7 +5422,7 @@
         <v>0.4470977858546159</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J30">
         <v>2048</v>
       </c>
@@ -5253,7 +5431,7 @@
         <v>0.50175256599174112</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J31">
         <v>2058</v>
       </c>
@@ -5277,74 +5455,74 @@
   </sheetPr>
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J5" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="K5" s="76"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="96"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -5366,18 +5544,18 @@
         <v>30</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>162</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5402,9 +5580,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5432,12 +5610,12 @@
         <v>1800</v>
       </c>
       <c r="K8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -5465,92 +5643,92 @@
         <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="75"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="95"/>
       <c r="F11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G11" s="8">
         <f>E7+E8+E9</f>
         <v>897.5</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G12" s="8">
         <f>C6*H6</f>
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C13" s="7">
         <f>SUM(E6:E9)</f>
         <v>1849.5</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C14" s="8">
         <f>C13*Constants!$D$31</f>
         <v>92.475000000000009</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2">
         <f>C12*Constants!$D$33</f>
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="53">
         <f>SUM(C13:C15)</f>
         <v>2013.9749999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="75" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="75"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="95"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C19">
         <f>C6*J6</f>
         <v>400</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5572,86 +5750,86 @@
   </sheetPr>
   <dimension ref="B2:S58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C2" s="83" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="M2" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="N2" s="78"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="M2" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="98"/>
       <c r="O2" s="32"/>
       <c r="Q2" s="5"/>
       <c r="R2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C3" s="83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="103" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="G3" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>67</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N3" s="34">
         <v>0.5</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C4" s="83"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="103"/>
       <c r="D4" s="21" t="s">
         <v>69</v>
       </c>
@@ -5677,19 +5855,19 @@
         <v>69</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N4" s="34">
         <v>0.25</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="102" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="22">
@@ -5708,26 +5886,26 @@
         <f t="shared" ref="G5:G36" si="0">D5*$N$3+E5*$N$4+F5*$N$5</f>
         <v>6.25E-2</v>
       </c>
-      <c r="H5" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="85"/>
+      <c r="H5" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="105"/>
       <c r="M5" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N5" s="35">
         <v>0.25</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="82"/>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="102"/>
       <c r="C6" s="24">
         <v>2007</v>
       </c>
@@ -5744,15 +5922,15 @@
         <f t="shared" si="0"/>
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="87"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="107"/>
       <c r="Q6" s="2"/>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="82"/>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="102"/>
       <c r="C7" s="24">
         <v>2008</v>
       </c>
@@ -5769,17 +5947,17 @@
         <f t="shared" si="0"/>
         <v>5.5E-2</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="87"/>
-      <c r="M7" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="N7" s="80"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="82"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="107"/>
+      <c r="M7" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="N7" s="100"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="102"/>
       <c r="C8" s="24">
         <v>2009</v>
       </c>
@@ -5796,19 +5974,19 @@
         <f t="shared" si="0"/>
         <v>6.275E-2</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
       <c r="M8" s="36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N8" s="37">
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="82"/>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="102"/>
       <c r="C9" s="24">
         <v>2010</v>
       </c>
@@ -5825,19 +6003,19 @@
         <f t="shared" si="0"/>
         <v>7.1250000000000008E-2</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="87"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="107"/>
       <c r="M9" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N9" s="38">
         <v>0.13</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="82"/>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="102"/>
       <c r="C10" s="24">
         <v>2011</v>
       </c>
@@ -5854,19 +6032,19 @@
         <f t="shared" si="0"/>
         <v>7.85E-2</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="107"/>
       <c r="M10" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N10" s="39">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="82"/>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="102"/>
       <c r="C11" s="24">
         <v>2012</v>
       </c>
@@ -5883,13 +6061,13 @@
         <f t="shared" si="0"/>
         <v>8.6750000000000008E-2</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="87"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="82"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="107"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="102"/>
       <c r="C12" s="24">
         <v>2013</v>
       </c>
@@ -5906,18 +6084,18 @@
         <f t="shared" si="0"/>
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
-      <c r="M12" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="N12" s="81"/>
-      <c r="O12" s="80"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="82"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="107"/>
+      <c r="M12" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="N12" s="101"/>
+      <c r="O12" s="100"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="102"/>
       <c r="C13" s="24">
         <v>2014</v>
       </c>
@@ -5934,22 +6112,22 @@
         <f t="shared" si="0"/>
         <v>9.9250000000000005E-2</v>
       </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="87"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="107"/>
       <c r="M13" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N13" s="40">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="O13" s="41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="82"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="102"/>
       <c r="C14" s="24">
         <v>2015</v>
       </c>
@@ -5966,22 +6144,22 @@
         <f t="shared" si="0"/>
         <v>0.11075000000000002</v>
       </c>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="107"/>
       <c r="M14" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N14" s="42">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="O14" s="43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="82"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="102"/>
       <c r="C15" s="24">
         <v>2016</v>
       </c>
@@ -5998,13 +6176,13 @@
         <f t="shared" si="0"/>
         <v>0.1215</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="87"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="82"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="107"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="102"/>
       <c r="C16" s="24">
         <v>2017</v>
       </c>
@@ -6021,13 +6199,13 @@
         <f t="shared" si="0"/>
         <v>0.10600000000000001</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="87"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="82"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="107"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="102"/>
       <c r="C17" s="26">
         <v>2018</v>
       </c>
@@ -6063,8 +6241,8 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="82" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="102" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="28">
@@ -6098,13 +6276,13 @@
         <f t="shared" si="1"/>
         <v>4.67695E-3</v>
       </c>
-      <c r="K18" s="98">
+      <c r="K18" s="74">
         <f t="shared" si="2"/>
         <v>0.121800644</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="82"/>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="102"/>
       <c r="C19" s="28">
         <v>2020</v>
       </c>
@@ -6136,13 +6314,13 @@
         <f t="shared" si="1"/>
         <v>4.9154744500000003E-3</v>
       </c>
-      <c r="K19" s="98">
+      <c r="K19" s="74">
         <f t="shared" si="2"/>
         <v>0.12732852071799999</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="82"/>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="102"/>
       <c r="C20" s="28">
         <v>2021</v>
       </c>
@@ -6174,13 +6352,13 @@
         <f t="shared" si="1"/>
         <v>5.1661636469499993E-3</v>
       </c>
-      <c r="K20" s="98">
+      <c r="K20" s="74">
         <f t="shared" si="2"/>
         <v>0.13312327211384598</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="82"/>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="102"/>
       <c r="C21" s="28">
         <v>2022</v>
       </c>
@@ -6212,13 +6390,13 @@
         <f t="shared" si="1"/>
         <v>5.4296379929444491E-3</v>
       </c>
-      <c r="K21" s="98">
+      <c r="K21" s="74">
         <f t="shared" si="2"/>
         <v>0.13919817776134313</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="82"/>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="102"/>
       <c r="C22" s="44">
         <v>2023</v>
       </c>
@@ -6250,13 +6428,13 @@
         <f t="shared" si="1"/>
         <v>5.7065495305846153E-3</v>
       </c>
-      <c r="K22" s="99">
+      <c r="K22" s="75">
         <f t="shared" si="2"/>
         <v>0.14556718720979583</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="82"/>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="102"/>
       <c r="C23" s="28">
         <v>2024</v>
       </c>
@@ -6288,13 +6466,13 @@
         <f t="shared" si="1"/>
         <v>5.9975835566444292E-3</v>
       </c>
-      <c r="K23" s="98">
+      <c r="K23" s="74">
         <f t="shared" si="2"/>
         <v>0.15224495399253735</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="82"/>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="102"/>
       <c r="C24" s="28">
         <v>2025</v>
       </c>
@@ -6326,13 +6504,13 @@
         <f t="shared" si="1"/>
         <v>6.3034603180332953E-3</v>
       </c>
-      <c r="K24" s="98">
+      <c r="K24" s="74">
         <f t="shared" si="2"/>
         <v>0.15924687136636964</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="82"/>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="102"/>
       <c r="C25" s="28">
         <v>2026</v>
       </c>
@@ -6364,13 +6542,13 @@
         <f t="shared" si="1"/>
         <v>6.624936794252992E-3</v>
       </c>
-      <c r="K25" s="98">
+      <c r="K25" s="74">
         <f t="shared" si="2"/>
         <v>0.16658910987011202</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="82"/>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="102"/>
       <c r="C26" s="28">
         <v>2027</v>
       </c>
@@ -6402,13 +6580,13 @@
         <f t="shared" si="1"/>
         <v>6.962808570759896E-3</v>
       </c>
-      <c r="K26" s="98">
+      <c r="K26" s="74">
         <f t="shared" si="2"/>
         <v>0.17428865679495459</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="82"/>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="102"/>
       <c r="C27" s="28">
         <v>2028</v>
       </c>
@@ -6440,13 +6618,13 @@
         <f t="shared" si="1"/>
         <v>7.3179118078686494E-3</v>
       </c>
-      <c r="K27" s="98">
+      <c r="K27" s="74">
         <f t="shared" si="2"/>
         <v>0.18236335766403633</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="82"/>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="102"/>
       <c r="C28" s="28">
         <v>2029</v>
       </c>
@@ -6478,13 +6656,13 @@
         <f t="shared" si="1"/>
         <v>7.6911253100699489E-3</v>
       </c>
-      <c r="K28" s="98">
+      <c r="K28" s="74">
         <f t="shared" si="2"/>
         <v>0.1908319598236371</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="82"/>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="102"/>
       <c r="C29" s="28">
         <v>2030</v>
       </c>
@@ -6516,13 +6694,13 @@
         <f t="shared" si="1"/>
         <v>8.083372700883518E-3</v>
       </c>
-      <c r="K29" s="98">
+      <c r="K29" s="74">
         <f t="shared" si="2"/>
         <v>0.19971415825358976</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="82"/>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="102"/>
       <c r="C30" s="28">
         <v>2031</v>
       </c>
@@ -6554,13 +6732,13 @@
         <f t="shared" si="1"/>
         <v>8.4956247086285779E-3</v>
       </c>
-      <c r="K30" s="98">
+      <c r="K30" s="74">
         <f t="shared" si="2"/>
         <v>0.20903064371000679</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="82"/>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="102"/>
       <c r="C31" s="28">
         <v>2032</v>
       </c>
@@ -6592,13 +6770,13 @@
         <f t="shared" si="1"/>
         <v>8.9289015687686324E-3</v>
       </c>
-      <c r="K31" s="98">
+      <c r="K31" s="74">
         <f t="shared" si="2"/>
         <v>0.21880315331918171</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="82"/>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="102"/>
       <c r="C32" s="28">
         <v>2033</v>
       </c>
@@ -6630,13 +6808,13 @@
         <f t="shared" si="1"/>
         <v>9.3842755487758348E-3</v>
       </c>
-      <c r="K32" s="98">
+      <c r="K32" s="74">
         <f t="shared" si="2"/>
         <v>0.22905452374758384</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="82"/>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="102"/>
       <c r="C33" s="28">
         <v>2034</v>
       </c>
@@ -6668,13 +6846,13 @@
         <f t="shared" si="1"/>
         <v>9.8628736017634007E-3</v>
       </c>
-      <c r="K33" s="98">
+      <c r="K33" s="74">
         <f t="shared" si="2"/>
         <v>0.23980874707923514</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="82"/>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="102"/>
       <c r="C34" s="28">
         <v>2035</v>
       </c>
@@ -6706,13 +6884,13 @@
         <f t="shared" si="1"/>
         <v>1.0365880155453333E-2</v>
       </c>
-      <c r="K34" s="98">
+      <c r="K34" s="74">
         <f t="shared" si="2"/>
         <v>0.25109102953845219</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="82"/>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="102"/>
       <c r="C35" s="28">
         <v>2036</v>
       </c>
@@ -6744,14 +6922,14 @@
         <f t="shared" si="1"/>
         <v>1.0894540043381454E-2</v>
       </c>
-      <c r="K35" s="98">
+      <c r="K35" s="74">
         <f t="shared" si="2"/>
         <v>0.26292785320296924</v>
       </c>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="82"/>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="102"/>
       <c r="C36" s="28">
         <v>2037</v>
       </c>
@@ -6783,13 +6961,13 @@
         <f t="shared" si="1"/>
         <v>1.1450161585593907E-2</v>
       </c>
-      <c r="K36" s="98">
+      <c r="K36" s="74">
         <f t="shared" si="2"/>
         <v>0.27534704085985384</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="82"/>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="102"/>
       <c r="C37" s="44">
         <v>2038</v>
       </c>
@@ -6821,13 +6999,13 @@
         <f t="shared" si="1"/>
         <v>1.2034119826459196E-2</v>
       </c>
-      <c r="K37" s="99">
+      <c r="K37" s="75">
         <f t="shared" si="2"/>
         <v>0.28837782416439728</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="82"/>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="102"/>
       <c r="C38" s="28">
         <v>2039</v>
       </c>
@@ -6859,13 +7037,13 @@
         <f t="shared" si="1"/>
         <v>1.2647859937608613E-2</v>
       </c>
-      <c r="K38" s="98">
+      <c r="K38" s="74">
         <f t="shared" si="2"/>
         <v>0.30205091527032768</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="82"/>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="102"/>
       <c r="C39" s="28">
         <v>2040</v>
       </c>
@@ -6897,13 +7075,13 @@
         <f t="shared" si="1"/>
         <v>1.3292900794426653E-2</v>
       </c>
-      <c r="K39" s="98">
+      <c r="K39" s="74">
         <f t="shared" si="2"/>
         <v>0.31639858210827854</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="82"/>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="102"/>
       <c r="C40" s="28">
         <v>2041</v>
       </c>
@@ -6935,13 +7113,13 @@
         <f t="shared" si="1"/>
         <v>1.397083873494241E-2</v>
       </c>
-      <c r="K40" s="98">
+      <c r="K40" s="74">
         <f t="shared" si="2"/>
         <v>0.33145472749846644</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="82"/>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="102"/>
       <c r="C41" s="28">
         <v>2042</v>
       </c>
@@ -6973,13 +7151,13 @@
         <f t="shared" si="1"/>
         <v>1.4683351510424471E-2</v>
       </c>
-      <c r="K41" s="98">
+      <c r="K41" s="74">
         <f t="shared" si="2"/>
         <v>0.34725497229301261</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="82"/>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="102"/>
       <c r="C42" s="28">
         <v>2043</v>
       </c>
@@ -7011,13 +7189,13 @@
         <f t="shared" si="1"/>
         <v>1.5432202437456117E-2</v>
       </c>
-      <c r="K42" s="98">
+      <c r="K42" s="74">
         <f t="shared" si="2"/>
         <v>0.36383674275330735</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="82"/>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="102"/>
       <c r="C43" s="28">
         <v>2044</v>
       </c>
@@ -7049,13 +7227,13 @@
         <f t="shared" si="1"/>
         <v>1.621924476176638E-2</v>
       </c>
-      <c r="K43" s="98">
+      <c r="K43" s="74">
         <f t="shared" si="2"/>
         <v>0.38123936237829092</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="82"/>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="102"/>
       <c r="C44" s="28">
         <v>2045</v>
       </c>
@@ -7087,13 +7265,13 @@
         <f t="shared" si="1"/>
         <v>1.7046426244616466E-2</v>
       </c>
-      <c r="K44" s="98">
+      <c r="K44" s="74">
         <f t="shared" si="2"/>
         <v>0.399504148410529</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="82"/>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="102"/>
       <c r="C45" s="28">
         <v>2046</v>
       </c>
@@ -7125,13 +7303,13 @@
         <f t="shared" si="1"/>
         <v>1.7915793983091906E-2</v>
       </c>
-      <c r="K45" s="98">
+      <c r="K45" s="74">
         <f t="shared" si="2"/>
         <v>0.41867451325853211</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="82"/>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="102"/>
       <c r="C46" s="28">
         <v>2047</v>
       </c>
@@ -7163,13 +7341,13 @@
         <f t="shared" si="1"/>
         <v>1.882949947622959E-2</v>
       </c>
-      <c r="K46" s="98">
+      <c r="K46" s="74">
         <f t="shared" si="2"/>
         <v>0.43879607108592272</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="82"/>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="102"/>
       <c r="C47" s="28">
         <v>2048</v>
       </c>
@@ -7201,13 +7379,13 @@
         <f t="shared" si="1"/>
         <v>1.9789803949517296E-2</v>
       </c>
-      <c r="K47" s="98">
+      <c r="K47" s="74">
         <f t="shared" si="2"/>
         <v>0.4599167498308368</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B48" s="82"/>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="102"/>
       <c r="C48" s="28">
         <v>2049</v>
       </c>
@@ -7239,13 +7417,13 @@
         <f t="shared" si="1"/>
         <v>2.0799083950942682E-2</v>
       </c>
-      <c r="K48" s="98">
+      <c r="K48" s="74">
         <f t="shared" si="2"/>
         <v>0.48208690893237127</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="82"/>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="102"/>
       <c r="C49" s="28">
         <v>2050</v>
       </c>
@@ -7277,13 +7455,13 @@
         <f t="shared" si="1"/>
         <v>2.1859837232440754E-2</v>
       </c>
-      <c r="K49" s="98">
+      <c r="K49" s="74">
         <f t="shared" si="2"/>
         <v>0.50535946305500745</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="82"/>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="102"/>
       <c r="C50" s="28">
         <v>2051</v>
       </c>
@@ -7315,13 +7493,13 @@
         <f t="shared" si="1"/>
         <v>2.2974688931295228E-2</v>
       </c>
-      <c r="K50" s="98">
+      <c r="K50" s="74">
         <f t="shared" si="2"/>
         <v>0.52979001211677401</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="82"/>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="102"/>
       <c r="C51" s="28">
         <v>2052</v>
       </c>
@@ -7353,13 +7531,13 @@
         <f t="shared" si="1"/>
         <v>2.4146398066791287E-2</v>
       </c>
-      <c r="K51" s="98">
+      <c r="K51" s="74">
         <f t="shared" si="2"/>
         <v>0.5554369779425018</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="82"/>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="102"/>
       <c r="C52" s="28">
         <v>2053</v>
       </c>
@@ -7391,13 +7569,13 @@
         <f t="shared" si="1"/>
         <v>2.5377864368197639E-2</v>
       </c>
-      <c r="K52" s="98">
+      <c r="K52" s="74">
         <f t="shared" si="2"/>
         <v>0.58236174787991268</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="82"/>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="102"/>
       <c r="C53" s="28">
         <v>2054</v>
       </c>
@@ -7429,13 +7607,13 @@
         <f t="shared" si="1"/>
         <v>2.6672135450975722E-2</v>
       </c>
-      <c r="K53" s="98">
+      <c r="K53" s="74">
         <f t="shared" si="2"/>
         <v>0.61062882573350319</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="82"/>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="102"/>
       <c r="C54" s="28">
         <v>2055</v>
       </c>
@@ -7467,13 +7645,13 @@
         <f t="shared" si="1"/>
         <v>2.803241435897548E-2</v>
       </c>
-      <c r="K54" s="98">
+      <c r="K54" s="74">
         <f t="shared" si="2"/>
         <v>0.64030599038928437</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="82"/>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="102"/>
       <c r="C55" s="28">
         <v>2056</v>
       </c>
@@ -7505,13 +7683,13 @@
         <f t="shared" si="1"/>
         <v>2.9462067491283224E-2</v>
       </c>
-      <c r="K55" s="98">
+      <c r="K55" s="74">
         <f t="shared" si="2"/>
         <v>0.67146446252246461</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="82"/>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="102"/>
       <c r="C56" s="28">
         <v>2057</v>
       </c>
@@ -7543,13 +7721,13 @@
         <f t="shared" si="1"/>
         <v>3.0964632933338666E-2</v>
       </c>
-      <c r="K56" s="98">
+      <c r="K56" s="74">
         <f t="shared" si="2"/>
         <v>0.70417907980015026</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="82"/>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="102"/>
       <c r="C57" s="44">
         <v>2058</v>
       </c>
@@ -7581,12 +7759,12 @@
         <f t="shared" si="1"/>
         <v>3.2543829212938934E-2</v>
       </c>
-      <c r="K57" s="99">
+      <c r="K57" s="75">
         <f t="shared" si="2"/>
         <v>0.73852848101215673</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
@@ -7613,87 +7791,87 @@
   </sheetPr>
   <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="176" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="40">
         <v>0.503</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="54">
         <v>0.25</v>
       </c>
       <c r="D3" s="55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
-        <v>115</v>
       </c>
       <c r="C4" s="42">
         <v>0.247</v>
       </c>
       <c r="D4" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="110" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="57" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="90" t="s">
+      <c r="G6" s="71" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="111"/>
+      <c r="C7" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="91"/>
-      <c r="C7" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="28">
         <v>1</v>
       </c>
@@ -7717,7 +7895,7 @@
         <v>148.254975</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="28">
         <v>2</v>
       </c>
@@ -7741,7 +7919,7 @@
         <v>161.49408</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="28">
         <v>3</v>
       </c>
@@ -7765,7 +7943,7 @@
         <v>197.67329999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="28">
         <v>4</v>
       </c>
@@ -7789,7 +7967,7 @@
         <v>247.09162500000002</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="28">
         <v>5</v>
       </c>
@@ -7813,7 +7991,7 @@
         <v>296.50995</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="28">
         <v>6</v>
       </c>
@@ -7837,7 +8015,7 @@
         <v>332.68916999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="28">
         <v>7</v>
       </c>
@@ -7861,7 +8039,7 @@
         <v>345.92827499999999</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="28">
         <v>8</v>
       </c>
@@ -7885,7 +8063,7 @@
         <v>332.68916999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="28">
         <v>9</v>
       </c>
@@ -7909,7 +8087,7 @@
         <v>296.50995</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="28">
         <v>10</v>
       </c>
@@ -7933,7 +8111,7 @@
         <v>247.09162500000002</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="28">
         <v>11</v>
       </c>
@@ -7957,7 +8135,7 @@
         <v>197.67329999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="62">
         <v>12</v>
       </c>
@@ -7981,11 +8159,11 @@
         <v>161.49408</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="89"/>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="109"/>
       <c r="D20" s="51">
         <v>0.85</v>
       </c>
@@ -7996,7 +8174,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
     </row>
@@ -8018,79 +8196,79 @@
   </sheetPr>
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" s="64">
         <v>8300</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" s="65">
         <v>0.1</v>
       </c>
       <c r="D3" s="55"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="60">
         <f>$C$2/12*C3</f>
         <v>69.166666666666671</v>
       </c>
       <c r="D4" s="55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
-        <v>125</v>
       </c>
       <c r="C5" s="19">
         <v>691.67</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="66"/>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="113"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="93"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="28">
         <v>1</v>
       </c>
@@ -8103,7 +8281,7 @@
         <v>751.57009042842367</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="28">
         <v>2</v>
       </c>
@@ -8116,7 +8294,7 @@
         <v>726.25333333333333</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="28">
         <v>3</v>
       </c>
@@ -8129,7 +8307,7 @@
         <v>691.67</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="28">
         <v>4</v>
       </c>
@@ -8142,7 +8320,7 @@
         <v>657.08666666666659</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="28">
         <v>5</v>
       </c>
@@ -8155,7 +8333,7 @@
         <v>631.76990957157625</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="28">
         <v>6</v>
       </c>
@@ -8168,7 +8346,7 @@
         <v>622.50333333333333</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="28">
         <v>7</v>
       </c>
@@ -8181,7 +8359,7 @@
         <v>631.76990957157625</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="28">
         <v>8</v>
       </c>
@@ -8194,7 +8372,7 @@
         <v>657.08666666666659</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="28">
         <v>9</v>
       </c>
@@ -8207,7 +8385,7 @@
         <v>691.67</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="28">
         <v>10</v>
       </c>
@@ -8220,7 +8398,7 @@
         <v>726.25333333333333</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="28">
         <v>11</v>
       </c>
@@ -8233,7 +8411,7 @@
         <v>751.57009042842367</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="62">
         <v>12</v>
       </c>
@@ -8246,9 +8424,9 @@
         <v>760.83666666666659</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" s="19">
         <f>SUM(C9:C20)</f>
@@ -8259,7 +8437,7 @@
         <v>8300.0400000000009</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -8279,62 +8457,62 @@
   <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="102" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="101" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="78" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="100">
+        <v>191</v>
+      </c>
+      <c r="C5" s="76">
         <v>0.75</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F5" s="3">
         <v>0.3</v>
       </c>
       <c r="G5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H5" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="100">
+        <v>192</v>
+      </c>
+      <c r="C6" s="76">
         <v>0.15</v>
       </c>
       <c r="D6" t="s">
@@ -8342,15 +8520,15 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="100">
+        <v>194</v>
+      </c>
+      <c r="C8" s="76">
         <v>0.08</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -8365,44 +8543,44 @@
   </sheetPr>
   <dimension ref="B3:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="164" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="115" t="s">
-        <v>74</v>
+      <c r="C3" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>73</v>
       </c>
       <c r="F3" s="1"/>
       <c r="J3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="116"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="115"/>
       <c r="C4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>68</v>
@@ -8410,15 +8588,15 @@
       <c r="E4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="111" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G4" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="95"/>
+      <c r="I4" s="85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
@@ -8433,21 +8611,21 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="8">
         <f>SUM(E5:E10)</f>
         <v>5057.565959640091</v>
       </c>
-      <c r="I5" s="100">
+      <c r="I5" s="76">
         <f>NPV(Constants!$D$28,D6:D10)</f>
         <v>5057.565959640091</v>
       </c>
       <c r="J5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -8464,21 +8642,21 @@
         <v>981.50506526772824</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="8">
         <f>SUM(E5:E25)</f>
         <v>22837.989575851927</v>
       </c>
-      <c r="I6" s="100">
+      <c r="I6" s="76">
         <f>NPV(Constants!$D$28,D6:D25)</f>
         <v>22837.989575851912</v>
       </c>
       <c r="J6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -8495,21 +8673,21 @@
         <v>996.165345555876</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="8">
         <f>SUM(E5:E45)</f>
         <v>54766.122515521667</v>
       </c>
-      <c r="I7" s="100">
+      <c r="I7" s="76">
         <f>NPV(Constants!$D$28,D6:D45)</f>
         <v>54766.122515521602</v>
       </c>
       <c r="J7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
@@ -8526,7 +8704,7 @@
         <v>1011.1660858346195</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
@@ -8542,16 +8720,20 @@
         <f>(1+Constants!$D$28)^-B9*D9</f>
         <v>1026.5139047167997</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="117">
+      <c r="G9" s="95" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" s="95"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="87">
         <v>5</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="88">
         <f>SUM(Consumption!$D$9:$D$20)</f>
         <v>8300.0400000000009</v>
       </c>
-      <c r="D10" s="119">
+      <c r="D10" s="89">
         <f>C10*'Grid Power'!K22</f>
         <v>1208.213476528794</v>
       </c>
@@ -8559,8 +8741,15 @@
         <f>(1+Constants!$D$28)^-B10*D10</f>
         <v>1042.2155582650678</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="76">
+        <f>PMT(Constants!$D$28,5,-'Analysis (Nothing)'!I5)</f>
+        <v>1104.3426474473551</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>6</v>
       </c>
@@ -8576,8 +8765,15 @@
         <f>(1+Constants!$D$28)^-B11*D11</f>
         <v>1058.2779427747871</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="76">
+        <f>PMT(Constants!$D$28,20,-'Analysis (Nothing)'!I6)</f>
+        <v>1535.0716294305789</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7</v>
       </c>
@@ -8593,8 +8789,15 @@
         <f>(1+Constants!$D$28)^-B12*D12</f>
         <v>1074.7080976138245</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="76">
+        <f>PMT(Constants!$D$28,40,-'Analysis (Nothing)'!I7)</f>
+        <v>2369.3126878618828</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>8</v>
       </c>
@@ -8611,7 +8814,7 @@
         <v>1091.5132081203903</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>9</v>
       </c>
@@ -8628,7 +8831,7 @@
         <v>1108.7006085601095</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10</v>
       </c>
@@ -8645,7 +8848,7 @@
         <v>1126.2777851435292</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11</v>
       </c>
@@ -8662,7 +8865,7 @@
         <v>1144.2523791052972</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>12</v>
       </c>
@@ -8679,7 +8882,7 @@
         <v>1162.632189846265</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>13</v>
       </c>
@@ -8696,7 +8899,7 @@
         <v>1181.4251781397925</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>14</v>
       </c>
@@ -8713,7 +8916,7 @@
         <v>1200.6394694035757</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>15</v>
       </c>
@@ -8730,7 +8933,7 @@
         <v>1220.2833570383175</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>16</v>
       </c>
@@ -8747,7 +8950,7 @@
         <v>1240.3653058346099</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>17</v>
       </c>
@@ -8764,7 +8967,7 @@
         <v>1260.8939554494193</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>18</v>
       </c>
@@ -8781,7 +8984,7 @@
         <v>1281.878123953589</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>19</v>
       </c>
@@ -8798,15 +9001,15 @@
         <v>1303.3268114518078</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="117">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="87">
         <v>20</v>
       </c>
-      <c r="C25" s="118">
+      <c r="C25" s="88">
         <f>SUM(Consumption!$D$9:$D$20)</f>
         <v>8300.0400000000009</v>
       </c>
-      <c r="D25" s="119">
+      <c r="D25" s="89">
         <f>C25*'Grid Power'!K37</f>
         <v>2393.5474756774643</v>
       </c>
@@ -8815,7 +9018,7 @@
         <v>1325.2492037765182</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>21</v>
       </c>
@@ -8832,7 +9035,7 @@
         <v>1347.6546762572775</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>22</v>
       </c>
@@ -8849,7 +9052,7 @@
         <v>1370.5527975670984</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>23</v>
       </c>
@@ -8866,7 +9069,7 @@
         <v>1393.9533336473496</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>24</v>
       </c>
@@ -8883,7 +9086,7 @@
         <v>1417.866251712808</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>25</v>
       </c>
@@ -8900,7 +9103,7 @@
         <v>1442.3017243384973</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>26</v>
       </c>
@@ -8917,7 +9120,7 @@
         <v>1467.2701336299854</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>27</v>
       </c>
@@ -8934,7 +9137,7 @@
         <v>1492.782075478832</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>28</v>
       </c>
@@ -8951,7 +9154,7 @@
         <v>1518.84836390493</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>29</v>
       </c>
@@ -8968,7 +9171,7 @@
         <v>1545.4800354875047</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>30</v>
       </c>
@@ -8985,7 +9188,7 @@
         <v>1572.6883538865807</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>31</v>
       </c>
@@ -9002,7 +9205,7 @@
         <v>1600.484814456762</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>32</v>
       </c>
@@ -9019,7 +9222,7 @@
         <v>1628.8811489552006</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>33</v>
       </c>
@@ -9036,7 +9239,7 @@
         <v>1657.8893303456764</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>34</v>
       </c>
@@ -9053,7 +9256,7 @@
         <v>1687.5215777007515</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>35</v>
       </c>
@@ -9070,7 +9273,7 @@
         <v>1717.7903612039854</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>36</v>
       </c>
@@ -9087,7 +9290,7 @@
         <v>1748.7084072542671</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>37</v>
       </c>
@@ -9104,7 +9307,7 @@
         <v>1780.2887036743246</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>38</v>
       </c>
@@ -9121,7 +9324,7 @@
         <v>1812.5445050255571</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>39</v>
       </c>
@@ -9138,15 +9341,15 @@
         <v>1845.4893380313372</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="117">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="87">
         <v>40</v>
       </c>
-      <c r="C45" s="118">
+      <c r="C45" s="88">
         <f>SUM(Consumption!$D$9:$D$20)</f>
         <v>8300.0400000000009</v>
       </c>
-      <c r="D45" s="119">
+      <c r="D45" s="89">
         <f>C45*'Grid Power'!K57</f>
         <v>6129.8159335401424</v>
       </c>
@@ -9156,9 +9359,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9166,152 +9370,154 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027EB65B-9F2A-45E0-91BF-AAB2AF956492}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027EB65B-9F2A-45E0-91BF-AAB2AF956492}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B2:AA49"/>
+  <dimension ref="B2:AA94"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="166" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T65" sqref="T65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="1.1640625" customWidth="1"/>
-    <col min="25" max="25" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1" style="69" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="1.140625" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="F4" s="97" t="s">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F4" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="G4" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="N4" s="75"/>
-      <c r="P4" s="75" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="109" t="s">
-        <v>188</v>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="N4" s="95"/>
+      <c r="P4" s="95" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B5" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="121" t="s">
+        <v>186</v>
       </c>
       <c r="H5" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="O5" s="92"/>
+      <c r="P5" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q5" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="R5" s="50" t="s">
         <v>205</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="K5" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="M5" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q5" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="R5" s="50" t="s">
-        <v>207</v>
       </c>
       <c r="S5" s="50" t="s">
         <v>15</v>
       </c>
       <c r="T5" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="U5" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="V5" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="U5" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="V5" s="50" t="s">
-        <v>211</v>
-      </c>
       <c r="W5" s="50" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y5" s="50" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="110"/>
+        <v>107</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>68</v>
@@ -9328,7 +9534,7 @@
       <c r="N6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="10"/>
+      <c r="O6" s="93"/>
       <c r="P6" s="10" t="s">
         <v>68</v>
       </c>
@@ -9350,14 +9556,15 @@
       <c r="V6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="W6" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="Y6" s="111" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="X6" s="77"/>
+      <c r="Y6" s="120" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -9366,7 +9573,7 @@
         <v>57522.9303</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9434,12 +9641,12 @@
         <f>W7*(1+Constants!$D$27)^-F7</f>
         <v>-1653.9749999999999</v>
       </c>
-      <c r="Z7" s="112">
+      <c r="Z7" s="91">
         <f>IRR(Y7:Y47)</f>
         <v>3.2586147161849599E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -9448,7 +9655,7 @@
         <v>62659.703039999993</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -9480,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" ref="N8:N47" si="1">IF(H8&lt;I8,0,H8-I8)</f>
+        <f t="shared" ref="N8:N46" si="1">IF(H8&lt;I8,0,H8-I8)</f>
         <v>0</v>
       </c>
       <c r="P8" s="8">
@@ -9528,7 +9735,7 @@
         <v>1.0532378701051364</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
@@ -9537,7 +9744,7 @@
         <v>76697.240399999995</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -9612,7 +9819,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4</v>
       </c>
@@ -9621,7 +9828,7 @@
         <v>95871.550500000012</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -9691,12 +9898,12 @@
         <f>W10*(1+Constants!$D$27)^-F10</f>
         <v>142.17035124043309</v>
       </c>
-      <c r="AA10" s="113">
+      <c r="AA10" s="90">
         <f>AA8/AA9-1</f>
         <v>3.2586147161898449E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -9705,7 +9912,7 @@
         <v>115045.8606</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -9776,7 +9983,7 @@
         <v>145.01455308914146</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6</v>
       </c>
@@ -9785,24 +9992,24 @@
         <v>129083.39796</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="103">
+        <v>185</v>
+      </c>
+      <c r="F12" s="79">
         <v>5</v>
       </c>
-      <c r="G12" s="104">
+      <c r="G12" s="80">
         <f>G11*(1-Constants!$D$17)</f>
         <v>0.97524875312187509</v>
       </c>
-      <c r="H12" s="105">
+      <c r="H12" s="81">
         <f t="shared" si="0"/>
         <v>1121.9833210198308</v>
       </c>
-      <c r="I12" s="105">
+      <c r="I12" s="81">
         <f>Consumption!$C$2-'Analysis (A)'!H12</f>
         <v>7178.0166789801697</v>
       </c>
-      <c r="J12" s="106">
+      <c r="J12" s="82">
         <f>I12*'Grid Power'!K22</f>
         <v>1044.8836977041433</v>
       </c>
@@ -9856,8 +10063,11 @@
         <f>W12*(1+Constants!$D$27)^-F12</f>
         <v>-664.9605889781576</v>
       </c>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
@@ -9866,7 +10076,7 @@
         <v>134220.17069999999</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -9938,7 +10148,7 @@
         <v>150.92699284252012</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8</v>
       </c>
@@ -9947,7 +10157,7 @@
         <v>129083.39796</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -10018,7 +10228,7 @@
         <v>153.99900244849746</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9</v>
       </c>
@@ -10027,7 +10237,7 @@
         <v>115045.8606</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -10098,7 +10308,7 @@
         <v>157.15079924086541</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>10</v>
       </c>
@@ -10107,7 +10317,7 @@
         <v>95871.550500000012</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F16">
         <v>9</v>
@@ -10178,7 +10388,7 @@
         <v>157.26853159057683</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>11</v>
       </c>
@@ -10187,7 +10397,7 @@
         <v>76697.240399999995</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -10259,16 +10469,16 @@
         <v>-572.56076603427448</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="101">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="77">
         <v>12</v>
       </c>
-      <c r="C18" s="107">
+      <c r="C18" s="83">
         <f>Weather!G19*Configurations!$C$19*(1-Constants!$N$16)</f>
         <v>62659.703039999993</v>
       </c>
-      <c r="D18" s="101" t="s">
-        <v>187</v>
+      <c r="D18" s="77" t="s">
+        <v>185</v>
       </c>
       <c r="F18">
         <v>11</v>
@@ -10340,16 +10550,16 @@
         <v>167.10523750986184</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="108">
+        <v>100</v>
+      </c>
+      <c r="C19" s="84">
         <f>SUM(C7:C18)/1000</f>
         <v>1150.4586060000001</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -10420,7 +10630,7 @@
         <v>170.5967663644054</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>13</v>
       </c>
@@ -10490,7 +10700,7 @@
         <v>172.0114702905295</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>14</v>
       </c>
@@ -10560,7 +10770,7 @@
         <v>170.53397565744137</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>15</v>
       </c>
@@ -10603,7 +10813,7 @@
         <v>-653.05995195914284</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" ref="R22:R47" si="6">$L$12/2</f>
+        <f t="shared" ref="R22:R23" si="6">$L$12/2</f>
         <v>448.75</v>
       </c>
       <c r="S22" s="8">
@@ -10631,7 +10841,7 @@
         <v>-485.23316387123788</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>16</v>
       </c>
@@ -10702,7 +10912,7 @@
         <v>181.67637227995988</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>17</v>
       </c>
@@ -10772,7 +10982,7 @@
         <v>189.45588057255569</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>18</v>
       </c>
@@ -10842,7 +11052,7 @@
         <v>187.71063179883888</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>19</v>
       </c>
@@ -10912,7 +11122,7 @@
         <v>187.21965432860443</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>20</v>
       </c>
@@ -10955,7 +11165,7 @@
         <v>-597.36878620174002</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" ref="R27:R47" si="7">$L$12/2</f>
+        <f t="shared" ref="R27:R28" si="7">$L$12/2</f>
         <v>448.75</v>
       </c>
       <c r="S27" s="8">
@@ -10983,7 +11193,7 @@
         <v>-402.01206840732732</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>21</v>
       </c>
@@ -11054,7 +11264,7 @@
         <v>198.99210689906801</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>22</v>
       </c>
@@ -11124,7 +11334,7 @@
         <v>207.59480031863038</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>23</v>
       </c>
@@ -11194,7 +11404,7 @@
         <v>206.16664439748496</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>24</v>
       </c>
@@ -11264,7 +11474,7 @@
         <v>206.59797680893462</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>25</v>
       </c>
@@ -11307,7 +11517,7 @@
         <v>-528.20648075461895</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" ref="R32:R47" si="8">$L$12/2</f>
+        <f t="shared" ref="R32:R33" si="8">$L$12/2</f>
         <v>448.75</v>
       </c>
       <c r="S32" s="8">
@@ -11335,7 +11545,7 @@
         <v>-321.95815603304175</v>
       </c>
     </row>
-    <row r="33" spans="6:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F33">
         <v>26</v>
       </c>
@@ -11406,7 +11616,7 @@
         <v>219.06800413345294</v>
       </c>
     </row>
-    <row r="34" spans="6:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F34">
         <v>27</v>
       </c>
@@ -11476,7 +11686,7 @@
         <v>227.79435438396087</v>
       </c>
     </row>
-    <row r="35" spans="6:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F35">
         <v>28</v>
       </c>
@@ -11546,7 +11756,7 @@
         <v>227.45776159064667</v>
       </c>
     </row>
-    <row r="36" spans="6:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F36">
         <v>29</v>
       </c>
@@ -11616,7 +11826,7 @@
         <v>228.82868432249586</v>
       </c>
     </row>
-    <row r="37" spans="6:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F37">
         <v>30</v>
       </c>
@@ -11659,7 +11869,7 @@
         <v>-442.23926427246397</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" ref="R37:R47" si="9">$L$12/2</f>
+        <f t="shared" ref="R37:R38" si="9">$L$12/2</f>
         <v>448.75</v>
       </c>
       <c r="S37" s="8">
@@ -11687,7 +11897,7 @@
         <v>-244.14742376872141</v>
       </c>
     </row>
-    <row r="38" spans="6:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F38">
         <v>31</v>
       </c>
@@ -11758,7 +11968,7 @@
         <v>242.15715032036763</v>
       </c>
     </row>
-    <row r="39" spans="6:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F39">
         <v>32</v>
       </c>
@@ -11828,7 +12038,7 @@
         <v>251.11620138789087</v>
       </c>
     </row>
-    <row r="40" spans="6:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F40">
         <v>33</v>
       </c>
@@ -11898,7 +12108,7 @@
         <v>251.89323451122155</v>
       </c>
     </row>
-    <row r="41" spans="6:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F41">
         <v>34</v>
       </c>
@@ -11968,7 +12178,7 @@
         <v>254.24412463382308</v>
       </c>
     </row>
-    <row r="42" spans="6:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>35</v>
       </c>
@@ -12011,7 +12221,7 @@
         <v>-335.30153005626107</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" ref="R42:R47" si="10">$L$12/2</f>
+        <f t="shared" ref="R42:R43" si="10">$L$12/2</f>
         <v>448.75</v>
       </c>
       <c r="S42" s="8">
@@ -12039,7 +12249,7 @@
         <v>-167.66002382975293</v>
       </c>
     </row>
-    <row r="43" spans="6:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F43">
         <v>36</v>
       </c>
@@ -12110,7 +12320,7 @@
         <v>268.61940340478827</v>
       </c>
     </row>
-    <row r="44" spans="6:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F44">
         <v>37</v>
       </c>
@@ -12180,7 +12390,7 @@
         <v>277.92945321499434</v>
       </c>
     </row>
-    <row r="45" spans="6:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F45">
         <v>38</v>
       </c>
@@ -12250,7 +12460,7 @@
         <v>279.8590888528052</v>
       </c>
     </row>
-    <row r="46" spans="6:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F46">
         <v>39</v>
       </c>
@@ -12320,7 +12530,7 @@
         <v>283.2452814018306</v>
       </c>
     </row>
-    <row r="47" spans="6:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F47">
         <v>40</v>
       </c>
@@ -12389,11 +12599,1524 @@
         <v>336.59585268596408</v>
       </c>
     </row>
-    <row r="49" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q49" s="100"/>
+    <row r="50" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F50" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="95"/>
+      <c r="Q50" s="76"/>
+    </row>
+    <row r="51" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F51" s="115" t="s">
+        <v>227</v>
+      </c>
+      <c r="G51" s="115"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="115"/>
+      <c r="J51" s="115"/>
+      <c r="K51" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="L51" s="115"/>
+      <c r="Q51" s="76"/>
+    </row>
+    <row r="52" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F52" s="114" t="str">
+        <f>F4</f>
+        <v>Year</v>
+      </c>
+      <c r="G52" s="123" t="str">
+        <f>G5</f>
+        <v>Solar efficiency</v>
+      </c>
+      <c r="H52" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="I52" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="J52" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="K52" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="L52" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F53" s="115"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="115"/>
+      <c r="I53" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J53" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="K53" s="115"/>
+      <c r="L53" s="93" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f>F7</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="73">
+        <f>G7</f>
+        <v>1</v>
+      </c>
+      <c r="H54" s="3">
+        <f>1-G54</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="18">
+        <f>H54*$C$19</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
+        <f>I54*'Grid Power'!K17</f>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f>F54</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="76">
+        <v>0</v>
+      </c>
+      <c r="M54" s="76"/>
+    </row>
+    <row r="55" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f>F8</f>
+        <v>1</v>
+      </c>
+      <c r="G55" s="73">
+        <f>G8</f>
+        <v>0.995</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" ref="H55:H94" si="11">1-G55</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="I55" s="18">
+        <f t="shared" ref="I55:I94" si="12">H55*$C$19</f>
+        <v>5.7522930300000059</v>
+      </c>
+      <c r="J55" s="8">
+        <f>I55*'Grid Power'!K18</f>
+        <v>0.70063299553071201</v>
+      </c>
+      <c r="K55">
+        <f>F55</f>
+        <v>1</v>
+      </c>
+      <c r="L55" s="76">
+        <f>PMT(3%,K55,-NPV(3%,$J$54:J55))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K55</f>
+        <v>1000.2802262092531</v>
+      </c>
+      <c r="M55" s="76"/>
+    </row>
+    <row r="56" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f>F9</f>
+        <v>2</v>
+      </c>
+      <c r="G56" s="73">
+        <f>G9</f>
+        <v>0.99002500000000004</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="11"/>
+        <v>9.9749999999999561E-3</v>
+      </c>
+      <c r="I56" s="18">
+        <f t="shared" si="12"/>
+        <v>11.475824594849952</v>
+      </c>
+      <c r="J56" s="8">
+        <f>I56*'Grid Power'!K19</f>
+        <v>1.461199769681486</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ref="K56:K94" si="13">F56</f>
+        <v>2</v>
+      </c>
+      <c r="L56" s="76">
+        <f>PMT(3%,K56,-NPV(3%,$J$54:J56))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K56</f>
+        <v>500.84397711754656</v>
+      </c>
+      <c r="M56" s="76"/>
+    </row>
+    <row r="57" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f>F10</f>
+        <v>3</v>
+      </c>
+      <c r="G57" s="73">
+        <f>G10</f>
+        <v>0.98507487500000002</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="11"/>
+        <v>1.4925124999999984E-2</v>
+      </c>
+      <c r="I57" s="18">
+        <f t="shared" si="12"/>
+        <v>17.170738501875732</v>
+      </c>
+      <c r="J57" s="8">
+        <f>I57*'Grid Power'!K20</f>
+        <v>2.2858248939808949</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="L57" s="76">
+        <f>PMT(3%,K57,-NPV(3%,$J$54:J57))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K57</f>
+        <v>334.62421276164304</v>
+      </c>
+      <c r="M57" s="76"/>
+    </row>
+    <row r="58" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f>F11</f>
+        <v>4</v>
+      </c>
+      <c r="G58" s="73">
+        <f>G11</f>
+        <v>0.98014950062500006</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="11"/>
+        <v>1.9850499374999941E-2</v>
+      </c>
+      <c r="I58" s="18">
+        <f t="shared" si="12"/>
+        <v>22.837177839366309</v>
+      </c>
+      <c r="J58" s="8">
+        <f>I58*'Grid Power'!K21</f>
+        <v>3.1788935404515177</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="L58" s="76">
+        <f>PMT(3%,K58,-NPV(3%,$J$54:J58))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K58</f>
+        <v>251.72149761676096</v>
+      </c>
+      <c r="M58" s="76"/>
+    </row>
+    <row r="59" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f>F12</f>
+        <v>5</v>
+      </c>
+      <c r="G59" s="73">
+        <f>G12</f>
+        <v>0.97524875312187509</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="11"/>
+        <v>2.4751246878124911E-2</v>
+      </c>
+      <c r="I59" s="18">
+        <f t="shared" si="12"/>
+        <v>28.475284980169441</v>
+      </c>
+      <c r="J59" s="8">
+        <f>I59*'Grid Power'!K22</f>
+        <v>4.1450671395606129</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="L59" s="76">
+        <f>PMT(3%,K59,-NPV(3%,$J$54:J59))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K59</f>
+        <v>202.15641249006097</v>
+      </c>
+      <c r="M59" s="76"/>
+    </row>
+    <row r="60" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f>F13</f>
+        <v>6</v>
+      </c>
+      <c r="G60" s="73">
+        <f>G13</f>
+        <v>0.97037250935626573</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="11"/>
+        <v>2.9627490643734267E-2</v>
+      </c>
+      <c r="I60" s="18">
+        <f t="shared" si="12"/>
+        <v>34.085201585268571</v>
+      </c>
+      <c r="J60" s="8">
+        <f>I60*'Grid Power'!K23</f>
+        <v>5.1892999471755745</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="L60" s="76">
+        <f>PMT(3%,K60,-NPV(3%,$J$54:J60))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K60</f>
+        <v>169.26955492360699</v>
+      </c>
+      <c r="M60" s="76"/>
+    </row>
+    <row r="61" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f>F14</f>
+        <v>7</v>
+      </c>
+      <c r="G61" s="73">
+        <f>G14</f>
+        <v>0.96552064680948435</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="11"/>
+        <v>3.4479353190515649E-2</v>
+      </c>
+      <c r="I61" s="18">
+        <f t="shared" si="12"/>
+        <v>39.667068607342294</v>
+      </c>
+      <c r="J61" s="8">
+        <f>I61*'Grid Power'!K24</f>
+        <v>6.3168565719943981</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="L61" s="76">
+        <f>PMT(3%,K61,-NPV(3%,$J$54:J61))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K61</f>
+        <v>145.92153960593339</v>
+      </c>
+      <c r="M61" s="76"/>
+    </row>
+    <row r="62" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f>F15</f>
+        <v>8</v>
+      </c>
+      <c r="G62" s="73">
+        <f>G15</f>
+        <v>0.96069304357543694</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="11"/>
+        <v>3.9306956424563055E-2</v>
+      </c>
+      <c r="I62" s="18">
+        <f t="shared" si="12"/>
+        <v>45.22102629430556</v>
+      </c>
+      <c r="J62" s="8">
+        <f>I62*'Grid Power'!K25</f>
+        <v>7.5333305177812937</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="L62" s="76">
+        <f>PMT(3%,K62,-NPV(3%,$J$54:J62))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K62</f>
+        <v>128.54299879239682</v>
+      </c>
+      <c r="M62" s="76"/>
+    </row>
+    <row r="63" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f>F16</f>
+        <v>9</v>
+      </c>
+      <c r="G63" s="73">
+        <f>G16</f>
+        <v>0.95588957835755972</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="11"/>
+        <v>4.4110421642440278E-2</v>
+      </c>
+      <c r="I63" s="18">
+        <f t="shared" si="12"/>
+        <v>50.747214192834079</v>
+      </c>
+      <c r="J63" s="8">
+        <f>I63*'Grid Power'!K26</f>
+        <v>8.8446637977549081</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="L63" s="76">
+        <f>PMT(3%,K63,-NPV(3%,$J$54:J63))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K63</f>
+        <v>115.15124940116297</v>
+      </c>
+      <c r="M63" s="76"/>
+    </row>
+    <row r="64" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f>F17</f>
+        <v>10</v>
+      </c>
+      <c r="G64" s="73">
+        <f>G17</f>
+        <v>0.95111013046577186</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="11"/>
+        <v>4.8889869534228136E-2</v>
+      </c>
+      <c r="I64" s="18">
+        <f t="shared" si="12"/>
+        <v>56.245771151869981</v>
+      </c>
+      <c r="J64" s="8">
+        <f>I64*'Grid Power'!K27</f>
+        <v>10.257167681658002</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="L64" s="76">
+        <f>PMT(3%,K64,-NPV(3%,$J$54:J64))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K64</f>
+        <v>104.556960118349</v>
+      </c>
+      <c r="M64" s="76"/>
+    </row>
+    <row r="65" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f>F18</f>
+        <v>11</v>
+      </c>
+      <c r="G65" s="73">
+        <f>G18</f>
+        <v>0.94635457981344295</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="11"/>
+        <v>5.3645420186557047E-2</v>
+      </c>
+      <c r="I65" s="18">
+        <f t="shared" si="12"/>
+        <v>61.71683532611069</v>
+      </c>
+      <c r="J65" s="8">
+        <f>I65*'Grid Power'!K28</f>
+        <v>11.777544639394382</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="L65" s="76">
+        <f>PMT(3%,K65,-NPV(3%,$J$54:J65))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K65</f>
+        <v>96.003545785240846</v>
+      </c>
+      <c r="M65" s="76"/>
+      <c r="T65" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f>F19</f>
+        <v>12</v>
+      </c>
+      <c r="G66" s="73">
+        <f>G19</f>
+        <v>0.94162280691437572</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="11"/>
+        <v>5.8377193085624279E-2</v>
+      </c>
+      <c r="I66" s="18">
+        <f t="shared" si="12"/>
+        <v>67.160544179480155</v>
+      </c>
+      <c r="J66" s="8">
+        <f>I66*'Grid Power'!K29</f>
+        <v>13.412911548657906</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="L66" s="76">
+        <f>PMT(3%,K66,-NPV(3%,$J$54:J66))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K66</f>
+        <v>88.986864825358793</v>
+      </c>
+      <c r="M66" s="76"/>
+      <c r="P66" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" ref="F67" si="14">F20</f>
+        <v>13</v>
+      </c>
+      <c r="G67" s="73">
+        <f>G20</f>
+        <v>0.93691469287980389</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="11"/>
+        <v>6.308530712019611E-2</v>
+      </c>
+      <c r="I67" s="18">
+        <f t="shared" si="12"/>
+        <v>72.577034488582697</v>
+      </c>
+      <c r="J67" s="8">
+        <f>I67*'Grid Power'!K30</f>
+        <v>15.170824237711805</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="L67" s="76">
+        <f>PMT(3%,K67,-NPV(3%,$J$54:J67))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K67</f>
+        <v>83.158133464486596</v>
+      </c>
+      <c r="M67" s="76"/>
+      <c r="T67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" ref="F68" si="15">F21</f>
+        <v>14</v>
+      </c>
+      <c r="G68" s="73">
+        <f>G21</f>
+        <v>0.9322301194154049</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="11"/>
+        <v>6.7769880584595099E-2</v>
+      </c>
+      <c r="I68" s="18">
+        <f t="shared" si="12"/>
+        <v>77.966442346139758</v>
+      </c>
+      <c r="J68" s="8">
+        <f>I68*'Grid Power'!K31</f>
+        <v>17.059303438413558</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="L68" s="76">
+        <f>PMT(3%,K68,-NPV(3%,$J$54:J68))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K68</f>
+        <v>78.268448352262595</v>
+      </c>
+      <c r="M68" s="76"/>
+      <c r="P68" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>50</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68" s="136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" ref="F69" si="16">F22</f>
+        <v>15</v>
+      </c>
+      <c r="G69" s="73">
+        <f>G22</f>
+        <v>0.92756896881832784</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="11"/>
+        <v>7.2431031181672156E-2</v>
+      </c>
+      <c r="I69" s="18">
+        <f t="shared" si="12"/>
+        <v>83.328903164409098</v>
+      </c>
+      <c r="J69" s="8">
+        <f>I69*'Grid Power'!K32</f>
+        <v>19.086862228732258</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="L69" s="76">
+        <f>PMT(3%,K69,-NPV(3%,$J$54:J69))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K69</f>
+        <v>74.13550033612789</v>
+      </c>
+      <c r="M69" s="76"/>
+      <c r="T69">
+        <v>2</v>
+      </c>
+      <c r="U69" s="136">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="70" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" ref="F70" si="17">F23</f>
+        <v>16</v>
+      </c>
+      <c r="G70" s="73">
+        <f>G23</f>
+        <v>0.92293112397423616</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="11"/>
+        <v>7.7068876025763844E-2</v>
+      </c>
+      <c r="I70" s="18">
+        <f t="shared" si="12"/>
+        <v>88.664551678587102</v>
+      </c>
+      <c r="J70" s="8">
+        <f>I70*'Grid Power'!K33</f>
+        <v>21.262535048384066</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="L70" s="76">
+        <f>PMT(3%,K70,-NPV(3%,$J$54:J70))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K70</f>
+        <v>70.62277076313967</v>
+      </c>
+      <c r="M70" s="76"/>
+      <c r="P70" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>232</v>
+      </c>
+      <c r="R70" t="s">
+        <v>230</v>
+      </c>
+      <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="U70" s="136">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="71" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" ref="F71" si="18">F24</f>
+        <v>17</v>
+      </c>
+      <c r="G71" s="73">
+        <f>G24</f>
+        <v>0.91831646835436498</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="11"/>
+        <v>8.1683531645635021E-2</v>
+      </c>
+      <c r="I71" s="18">
+        <f t="shared" si="12"/>
+        <v>93.973521950194169</v>
+      </c>
+      <c r="J71" s="8">
+        <f>I71*'Grid Power'!K34</f>
+        <v>23.595908375828589</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="L71" s="76">
+        <f>PMT(3%,K71,-NPV(3%,$J$54:J71))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K71</f>
+        <v>67.626070449732737</v>
+      </c>
+      <c r="M71" s="76"/>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>2</v>
+      </c>
+      <c r="R71" s="2">
+        <f>PMT(3%, Q71,-NPV(3%,$Q$71:Q71))+$Q$68/Q71</f>
+        <v>26.014778325123153</v>
+      </c>
+      <c r="T71">
+        <v>4</v>
+      </c>
+      <c r="U71" s="136">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="72" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" ref="F72" si="19">F25</f>
+        <v>18</v>
+      </c>
+      <c r="G72" s="73">
+        <f>G25</f>
+        <v>0.91372488601259316</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="11"/>
+        <v>8.6275113987406837E-2</v>
+      </c>
+      <c r="I72" s="18">
+        <f t="shared" si="12"/>
+        <v>99.255947370443181</v>
+      </c>
+      <c r="J72" s="8">
+        <f>I72*'Grid Power'!K35</f>
+        <v>26.097153159737527</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="L72" s="76">
+        <f>PMT(3%,K72,-NPV(3%,$J$54:J72))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K72</f>
+        <v>65.064565841801482</v>
+      </c>
+      <c r="M72" s="76"/>
+      <c r="P72">
+        <v>2</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>4</v>
+      </c>
+      <c r="R72" s="2">
+        <f>PMT(3%, Q72,-NPV(3%,$Q$71:Q72))+$Q$68/Q72</f>
+        <v>14.036717781006768</v>
+      </c>
+      <c r="T72">
+        <v>5</v>
+      </c>
+      <c r="U72" s="135">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="73" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" ref="F73" si="20">F26</f>
+        <v>19</v>
+      </c>
+      <c r="G73" s="73">
+        <f>G26</f>
+        <v>0.90915626158253016</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="11"/>
+        <v>9.0843738417469844E-2</v>
+      </c>
+      <c r="I73" s="18">
+        <f t="shared" si="12"/>
+        <v>104.51196066359101</v>
+      </c>
+      <c r="J73" s="8">
+        <f>I73*'Grid Power'!K36</f>
+        <v>28.77705910318123</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="L73" s="76">
+        <f>PMT(3%,K73,-NPV(3%,$J$54:J73))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K73</f>
+        <v>62.874639193945939</v>
+      </c>
+      <c r="M73" s="76"/>
+      <c r="P73">
+        <v>3</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>6</v>
+      </c>
+      <c r="R73" s="2">
+        <f>PMT(3%, Q73,-NPV(3%,$Q$71:Q73))+$Q$68/Q73</f>
+        <v>10.401375654069417</v>
+      </c>
+    </row>
+    <row r="74" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" ref="F74" si="21">F27</f>
+        <v>20</v>
+      </c>
+      <c r="G74" s="73">
+        <f>G27</f>
+        <v>0.90461048027461755</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="11"/>
+        <v>9.5389519725382454E-2</v>
+      </c>
+      <c r="I74" s="18">
+        <f t="shared" si="12"/>
+        <v>109.74169389027301</v>
+      </c>
+      <c r="J74" s="8">
+        <f>I74*'Grid Power'!K37</f>
+        <v>31.647070904192262</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="L74" s="76">
+        <f>PMT(3%,K74,-NPV(3%,$J$54:J74))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K74</f>
+        <v>61.005590865286969</v>
+      </c>
+      <c r="M74" s="76"/>
+      <c r="P74">
+        <v>4</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>8</v>
+      </c>
+      <c r="R74" s="2">
+        <f>PMT(3%, Q74,-NPV(3%,$Q$71:Q74))+$Q$68/Q74</f>
+        <v>8.8585014918591067</v>
+      </c>
+      <c r="T74" t="s">
+        <v>214</v>
+      </c>
+      <c r="U74" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="75" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" ref="F75" si="22">F28</f>
+        <v>21</v>
+      </c>
+      <c r="G75" s="73">
+        <f>G28</f>
+        <v>0.90008742787324447</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="11"/>
+        <v>9.9912572126755528E-2</v>
+      </c>
+      <c r="I75" s="18">
+        <f t="shared" si="12"/>
+        <v>114.94527845082163</v>
+      </c>
+      <c r="J75" s="8">
+        <f>I75*'Grid Power'!K38</f>
+        <v>34.719326562073348</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="L75" s="76">
+        <f>PMT(3%,K75,-NPV(3%,$J$54:J75))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K75</f>
+        <v>59.416569697008114</v>
+      </c>
+      <c r="M75" s="76"/>
+      <c r="P75">
+        <v>5</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>10</v>
+      </c>
+      <c r="R75" s="2">
+        <f>PMT(3%, Q75,-NPV(3%,$Q$71:Q75))+$Q$68/Q75</f>
+        <v>8.1578340993844467</v>
+      </c>
+      <c r="T75" s="53">
+        <f>NPV(5%,U68:U70)</f>
+        <v>-4.0924306230428673</v>
+      </c>
+      <c r="U75" s="134">
+        <f>IRR(U68:U72)</f>
+        <v>0.92756197548290231</v>
+      </c>
+    </row>
+    <row r="76" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" ref="F76" si="23">F29</f>
+        <v>22</v>
+      </c>
+      <c r="G76" s="73">
+        <f>G29</f>
+        <v>0.89558699073387826</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="11"/>
+        <v>0.10441300926612174</v>
+      </c>
+      <c r="I76" s="18">
+        <f t="shared" si="12"/>
+        <v>120.12284508856752</v>
+      </c>
+      <c r="J76" s="8">
+        <f>I76*'Grid Power'!K39</f>
+        <v>38.006697864835154</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="L76" s="76">
+        <f>PMT(3%,K76,-NPV(3%,$J$54:J76))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K76</f>
+        <v>58.074340722273597</v>
+      </c>
+      <c r="M76" s="76"/>
+      <c r="P76">
+        <v>6</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>12</v>
+      </c>
+      <c r="R76" s="2">
+        <f>PMT(3%, Q76,-NPV(3%,$Q$71:Q76))+$Q$68/Q76</f>
+        <v>7.8824353660505482</v>
+      </c>
+    </row>
+    <row r="77" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" ref="F77" si="24">F30</f>
+        <v>23</v>
+      </c>
+      <c r="G77" s="73">
+        <f>G30</f>
+        <v>0.89110905578020883</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="11"/>
+        <v>0.10889094421979117</v>
+      </c>
+      <c r="I77" s="18">
+        <f t="shared" si="12"/>
+        <v>125.27452389312472</v>
+      </c>
+      <c r="J77" s="8">
+        <f>I77*'Grid Power'!K40</f>
+        <v>41.522833179495777</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="L77" s="76">
+        <f>PMT(3%,K77,-NPV(3%,$J$54:J77))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K77</f>
+        <v>56.951635372083025</v>
+      </c>
+      <c r="M77" s="76"/>
+      <c r="P77">
+        <v>7</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>14</v>
+      </c>
+      <c r="R77" s="2">
+        <f>PMT(3%, Q77,-NPV(3%,$Q$71:Q77))+$Q$68/Q77</f>
+        <v>7.8534526903256126</v>
+      </c>
+    </row>
+    <row r="78" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" ref="F78" si="25">F31</f>
+        <v>24</v>
+      </c>
+      <c r="G78" s="73">
+        <f>G31</f>
+        <v>0.88665351050130781</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" si="11"/>
+        <v>0.11334648949869219</v>
+      </c>
+      <c r="I78" s="18">
+        <f t="shared" si="12"/>
+        <v>130.40044430365907</v>
+      </c>
+      <c r="J78" s="8">
+        <f>I78*'Grid Power'!K41</f>
+        <v>45.282202673663662</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="L78" s="76">
+        <f>PMT(3%,K78,-NPV(3%,$J$54:J78))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K78</f>
+        <v>56.025914286195174</v>
+      </c>
+      <c r="M78" s="76"/>
+      <c r="P78">
+        <v>8</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>16</v>
+      </c>
+      <c r="R78" s="2">
+        <f>PMT(3%, Q78,-NPV(3%,$Q$71:Q78))+$Q$68/Q78</f>
+        <v>7.9813100000640747</v>
+      </c>
+    </row>
+    <row r="79" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f t="shared" ref="F79" si="26">F32</f>
+        <v>25</v>
+      </c>
+      <c r="G79" s="73">
+        <f>G32</f>
+        <v>0.8822202429488013</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" si="11"/>
+        <v>0.1177797570511987</v>
+      </c>
+      <c r="I79" s="18">
+        <f t="shared" si="12"/>
+        <v>135.50073511214075</v>
+      </c>
+      <c r="J79" s="8">
+        <f>I79*'Grid Power'!K42</f>
+        <v>49.300146103879996</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="L79" s="76">
+        <f>PMT(3%,K79,-NPV(3%,$J$54:J79))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K79</f>
+        <v>55.278427203421124</v>
+      </c>
+      <c r="M79" s="76"/>
+      <c r="P79">
+        <v>9</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>18</v>
+      </c>
+      <c r="R79" s="2">
+        <f>PMT(3%, Q79,-NPV(3%,$Q$71:Q79))+$Q$68/Q79</f>
+        <v>8.2161051440834747</v>
+      </c>
+    </row>
+    <row r="80" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F80" s="87">
+        <f t="shared" ref="F80" si="27">F33</f>
+        <v>26</v>
+      </c>
+      <c r="G80" s="129">
+        <f>G33</f>
+        <v>0.87780914173405733</v>
+      </c>
+      <c r="H80" s="130">
+        <f t="shared" si="11"/>
+        <v>0.12219085826594267</v>
+      </c>
+      <c r="I80" s="131">
+        <f t="shared" si="12"/>
+        <v>140.57552446657999</v>
+      </c>
+      <c r="J80" s="132">
+        <f>I80*'Grid Power'!K43</f>
+        <v>53.592923313632795</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="13"/>
+        <v>26</v>
+      </c>
+      <c r="L80" s="76">
+        <f>PMT(3%,K80,-NPV(3%,$J$54:J80))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K80</f>
+        <v>54.693489952045674</v>
+      </c>
+      <c r="M80" s="76"/>
+      <c r="P80">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>20</v>
+      </c>
+      <c r="R80" s="2">
+        <f>PMT(3%, Q80,-NPV(3%,$Q$71:Q80))+$Q$68/Q80</f>
+        <v>8.5277692082784338</v>
+      </c>
+    </row>
+    <row r="81" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f t="shared" ref="F81" si="28">F34</f>
+        <v>27</v>
+      </c>
+      <c r="G81" s="73">
+        <f>G34</f>
+        <v>0.87342009602538706</v>
+      </c>
+      <c r="H81" s="3">
+        <f t="shared" si="11"/>
+        <v>0.12657990397461294</v>
+      </c>
+      <c r="I81" s="18">
+        <f t="shared" si="12"/>
+        <v>145.62493987424708</v>
+      </c>
+      <c r="J81" s="8">
+        <f>I81*'Grid Power'!K44</f>
+        <v>58.177767591795565</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="L81" s="76">
+        <f>PMT(3%,K81,-NPV(3%,$J$54:J81))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K81</f>
+        <v>54.257922258777327</v>
+      </c>
+      <c r="M81" s="76"/>
+    </row>
+    <row r="82" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f t="shared" ref="F82" si="29">F35</f>
+        <v>28</v>
+      </c>
+      <c r="G82" s="73">
+        <f>G35</f>
+        <v>0.86905299554526017</v>
+      </c>
+      <c r="H82" s="3">
+        <f t="shared" si="11"/>
+        <v>0.13094700445473983</v>
+      </c>
+      <c r="I82" s="18">
+        <f t="shared" si="12"/>
+        <v>150.6491082048758</v>
+      </c>
+      <c r="J82" s="8">
+        <f>I82*'Grid Power'!K45</f>
+        <v>63.07294205050831</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="L82" s="76">
+        <f>PMT(3%,K82,-NPV(3%,$J$54:J82))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K82</f>
+        <v>53.960606175171442</v>
+      </c>
+      <c r="M82" s="76"/>
+    </row>
+    <row r="83" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f t="shared" ref="F83" si="30">F36</f>
+        <v>29</v>
+      </c>
+      <c r="G83" s="73">
+        <f>G36</f>
+        <v>0.86470773056753381</v>
+      </c>
+      <c r="H83" s="3">
+        <f t="shared" si="11"/>
+        <v>0.13529226943246619</v>
+      </c>
+      <c r="I83" s="18">
+        <f t="shared" si="12"/>
+        <v>155.64815569385149</v>
+      </c>
+      <c r="J83" s="8">
+        <f>I83*'Grid Power'!K46</f>
+        <v>68.297799190232027</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="13"/>
+        <v>29</v>
+      </c>
+      <c r="L83" s="76">
+        <f>PMT(3%,K83,-NPV(3%,$J$54:J83))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K83</f>
+        <v>53.792136010504088</v>
+      </c>
+      <c r="M83" s="76"/>
+    </row>
+    <row r="84" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f t="shared" ref="F84" si="31">F37</f>
+        <v>30</v>
+      </c>
+      <c r="G84" s="73">
+        <f>G37</f>
+        <v>0.86038419191469617</v>
+      </c>
+      <c r="H84" s="3">
+        <f t="shared" si="11"/>
+        <v>0.13961580808530383</v>
+      </c>
+      <c r="I84" s="18">
+        <f t="shared" si="12"/>
+        <v>160.6222079453822</v>
+      </c>
+      <c r="J84" s="8">
+        <f>I84*'Grid Power'!K47</f>
+        <v>73.872843828892996</v>
+      </c>
+      <c r="K84" s="87">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="L84" s="133">
+        <f>PMT(3%,K84,-NPV(3%,$J$54:J84))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K84</f>
+        <v>53.744538423099655</v>
+      </c>
+      <c r="M84" s="76" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f t="shared" ref="F85" si="32">F38</f>
+        <v>31</v>
+      </c>
+      <c r="G85" s="73">
+        <f>G38</f>
+        <v>0.85608227095512268</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" si="11"/>
+        <v>0.14391772904487732</v>
+      </c>
+      <c r="I85" s="18">
+        <f t="shared" si="12"/>
+        <v>165.5713899356553</v>
+      </c>
+      <c r="J85" s="8">
+        <f>I85*'Grid Power'!K48</f>
+        <v>79.819799581716396</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="13"/>
+        <v>31</v>
+      </c>
+      <c r="L85" s="76">
+        <f>PMT(3%,K85,-NPV(3%,$J$54:J85))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K85</f>
+        <v>53.811046831360756</v>
+      </c>
+      <c r="M85" s="76"/>
+    </row>
+    <row r="86" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f t="shared" ref="F86" si="33">F39</f>
+        <v>32</v>
+      </c>
+      <c r="G86" s="73">
+        <f>G39</f>
+        <v>0.85180185960034704</v>
+      </c>
+      <c r="H86" s="3">
+        <f t="shared" si="11"/>
+        <v>0.14819814039965296</v>
+      </c>
+      <c r="I86" s="18">
+        <f t="shared" si="12"/>
+        <v>170.49582601597703</v>
+      </c>
+      <c r="J86" s="8">
+        <f>I86*'Grid Power'!K49</f>
+        <v>86.161679088554123</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="13"/>
+        <v>32</v>
+      </c>
+      <c r="L86" s="76">
+        <f>PMT(3%,K86,-NPV(3%,$J$54:J86))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K86</f>
+        <v>53.985918265521818</v>
+      </c>
+      <c r="M86" s="76"/>
+    </row>
+    <row r="87" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f t="shared" ref="F87" si="34">F40</f>
+        <v>33</v>
+      </c>
+      <c r="G87" s="73">
+        <f>G40</f>
+        <v>0.84754285030234533</v>
+      </c>
+      <c r="H87" s="3">
+        <f t="shared" si="11"/>
+        <v>0.15245714969765467</v>
+      </c>
+      <c r="I87" s="18">
+        <f t="shared" si="12"/>
+        <v>175.39563991589714</v>
+      </c>
+      <c r="J87" s="8">
+        <f>I87*'Grid Power'!K50</f>
+        <v>92.922858196272472</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="L87" s="76">
+        <f>PMT(3%,K87,-NPV(3%,$J$54:J87))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K87</f>
+        <v>54.264283660984461</v>
+      </c>
+      <c r="M87" s="76"/>
+    </row>
+    <row r="88" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f t="shared" ref="F88" si="35">F41</f>
+        <v>34</v>
+      </c>
+      <c r="G88" s="73">
+        <f>G41</f>
+        <v>0.84330513605083357</v>
+      </c>
+      <c r="H88" s="3">
+        <f t="shared" si="11"/>
+        <v>0.15669486394916643</v>
+      </c>
+      <c r="I88" s="18">
+        <f t="shared" si="12"/>
+        <v>180.2709547463177</v>
+      </c>
+      <c r="J88" s="8">
+        <f>I88*'Grid Power'!K51</f>
+        <v>100.1291543151042</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="13"/>
+        <v>34</v>
+      </c>
+      <c r="L88" s="76">
+        <f>PMT(3%,K88,-NPV(3%,$J$54:J88))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K88</f>
+        <v>54.642024711621794</v>
+      </c>
+      <c r="M88" s="76"/>
+    </row>
+    <row r="89" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f t="shared" ref="F89" si="36">F42</f>
+        <v>35</v>
+      </c>
+      <c r="G89" s="73">
+        <f>G42</f>
+        <v>0.83908861037057936</v>
+      </c>
+      <c r="H89" s="3">
+        <f t="shared" si="11"/>
+        <v>0.16091138962942064</v>
+      </c>
+      <c r="I89" s="18">
+        <f t="shared" si="12"/>
+        <v>185.12189300258615</v>
+      </c>
+      <c r="J89" s="8">
+        <f>I89*'Grid Power'!K52</f>
+        <v>107.80790917982425</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="L89" s="76">
+        <f>PMT(3%,K89,-NPV(3%,$J$54:J89))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K89</f>
+        <v>55.115671974462657</v>
+      </c>
+      <c r="M89" s="76"/>
+    </row>
+    <row r="90" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f t="shared" ref="F90" si="37">F43</f>
+        <v>36</v>
+      </c>
+      <c r="G90" s="73">
+        <f>G43</f>
+        <v>0.83489316731872643</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" si="11"/>
+        <v>0.16510683268127357</v>
+      </c>
+      <c r="I90" s="18">
+        <f t="shared" si="12"/>
+        <v>189.94857656757327</v>
+      </c>
+      <c r="J90" s="8">
+        <f>I90*'Grid Power'!K53</f>
+        <v>115.98807625920769</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="L90" s="76">
+        <f>PMT(3%,K90,-NPV(3%,$J$54:J90))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K90</f>
+        <v>55.682320096936351</v>
+      </c>
+      <c r="M90" s="76"/>
+    </row>
+    <row r="91" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f t="shared" ref="F91" si="38">F44</f>
+        <v>37</v>
+      </c>
+      <c r="G91" s="73">
+        <f>G44</f>
+        <v>0.83071870148213278</v>
+      </c>
+      <c r="H91" s="3">
+        <f t="shared" si="11"/>
+        <v>0.16928129851786722</v>
+      </c>
+      <c r="I91" s="18">
+        <f t="shared" si="12"/>
+        <v>194.75112671473542</v>
+      </c>
+      <c r="J91" s="8">
+        <f>I91*'Grid Power'!K54</f>
+        <v>124.70031307050768</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="L91" s="76">
+        <f>PMT(3%,K91,-NPV(3%,$J$54:J91))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K91</f>
+        <v>56.339556930659711</v>
+      </c>
+      <c r="M91" s="76"/>
+    </row>
+    <row r="92" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f t="shared" ref="F92" si="39">F45</f>
+        <v>38</v>
+      </c>
+      <c r="G92" s="73">
+        <f>G45</f>
+        <v>0.82656510797472216</v>
+      </c>
+      <c r="H92" s="3">
+        <f t="shared" si="11"/>
+        <v>0.17343489202527784</v>
+      </c>
+      <c r="I92" s="18">
+        <f t="shared" si="12"/>
+        <v>199.52966411116168</v>
+      </c>
+      <c r="J92" s="8">
+        <f>I92*'Grid Power'!K55</f>
+        <v>133.97707866968906</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="L92" s="76">
+        <f>PMT(3%,K92,-NPV(3%,$J$54:J92))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K92</f>
+        <v>57.08540397709794</v>
+      </c>
+      <c r="M92" s="76"/>
+    </row>
+    <row r="93" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <f t="shared" ref="F93" si="40">F46</f>
+        <v>39</v>
+      </c>
+      <c r="G93" s="73">
+        <f>G46</f>
+        <v>0.82243228243484856</v>
+      </c>
+      <c r="H93" s="3">
+        <f t="shared" si="11"/>
+        <v>0.17756771756515144</v>
+      </c>
+      <c r="I93" s="18">
+        <f t="shared" si="12"/>
+        <v>204.28430882060587</v>
+      </c>
+      <c r="J93" s="8">
+        <f>I93*'Grid Power'!K56</f>
+        <v>143.85273660290397</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="L93" s="76">
+        <f>PMT(3%,K93,-NPV(3%,$J$54:J93))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K93</f>
+        <v>57.918266134548588</v>
+      </c>
+      <c r="M93" s="76"/>
+    </row>
+    <row r="94" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F94" s="77">
+        <f t="shared" ref="F94:G94" si="41">F47</f>
+        <v>40</v>
+      </c>
+      <c r="G94" s="125">
+        <f>G47</f>
+        <v>0.81832012102267426</v>
+      </c>
+      <c r="H94" s="126">
+        <f t="shared" si="11"/>
+        <v>0.18167987897732574</v>
+      </c>
+      <c r="I94" s="19">
+        <f t="shared" si="12"/>
+        <v>209.01518030650291</v>
+      </c>
+      <c r="J94" s="127">
+        <f>I94*'Grid Power'!K57</f>
+        <v>154.36366362024364</v>
+      </c>
+      <c r="K94" s="77">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="L94" s="128">
+        <f>PMT(3%,K94,-NPV(3%,$J$54:J94))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K94</f>
+        <v>58.836889122090653</v>
+      </c>
+      <c r="M94" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="15">
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:K53"/>
     <mergeCell ref="P4:W4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="F4:F6"/>
@@ -12401,9 +14124,12 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -12412,27 +14138,32 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/Main.xlsx
+++ b/data/Main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhe\Documents\MECH431\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D03C9B-CC9C-4D57-A294-661E30B313B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B3B88C-53A1-4409-8C1D-8DF75E649048}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1785" windowWidth="38400" windowHeight="20100" tabRatio="582" activeTab="7" xr2:uid="{B79B3171-F36B-48DE-8068-476A01F57370}"/>
+    <workbookView xWindow="0" yWindow="2235" windowWidth="38400" windowHeight="20100" tabRatio="582" firstSheet="1" activeTab="6" xr2:uid="{B79B3171-F36B-48DE-8068-476A01F57370}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="236">
   <si>
     <t>Daily average demand</t>
   </si>
@@ -367,9 +367,6 @@
     <t>Inflation Rate</t>
   </si>
   <si>
-    <t>PW</t>
-  </si>
-  <si>
     <t>5 years</t>
   </si>
   <si>
@@ -379,9 +376,6 @@
     <t>40 years</t>
   </si>
   <si>
-    <t>PW cost</t>
-  </si>
-  <si>
     <t>Off-peak</t>
   </si>
   <si>
@@ -802,9 +796,6 @@
     <t>We can compute the real IRR, then find the market IRR</t>
   </si>
   <si>
-    <t>ATCF Market MARR</t>
-  </si>
-  <si>
     <t>Use panel's lost efficiency as opportunity cost -&gt; marginal cost</t>
   </si>
   <si>
@@ -854,6 +845,15 @@
   </si>
   <si>
     <t>PIAZZA STUFF</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>ATCF Nominal MARR</t>
+  </si>
+  <si>
+    <t>Energy Cost</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
-    <numFmt numFmtId="174" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1120,7 +1120,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1228,9 +1228,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,6 +1242,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,7 +1330,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1323,33 +1353,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -4564,7 +4579,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -4585,25 +4600,25 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95" t="s">
+      <c r="E8" s="109"/>
+      <c r="F8" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95" t="s">
+      <c r="G8" s="109"/>
+      <c r="H8" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95" t="s">
+      <c r="I8" s="109"/>
+      <c r="J8" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="95"/>
+      <c r="K8" s="109"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="108" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
@@ -4635,7 +4650,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="94"/>
+      <c r="B10" s="108"/>
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -4665,7 +4680,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="94"/>
+      <c r="B11" s="108"/>
       <c r="C11" t="s">
         <v>7</v>
       </c>
@@ -4760,13 +4775,13 @@
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M17">
         <v>27</v>
@@ -4777,13 +4792,13 @@
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D18" s="5">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
@@ -4800,7 +4815,7 @@
         <v>400</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M19">
         <v>14</v>
@@ -4873,7 +4888,7 @@
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="D28" s="4">
         <v>0.03</v>
@@ -4884,34 +4899,34 @@
         <v>66</v>
       </c>
       <c r="M29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S29" s="2">
         <v>10000</v>
       </c>
       <c r="T29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U29" s="9">
         <f>(S30-S29)/2</f>
         <v>3000</v>
       </c>
       <c r="V29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D30" s="3">
         <v>0.1</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M30" t="s">
         <v>35</v>
@@ -4920,18 +4935,18 @@
         <v>16000</v>
       </c>
       <c r="T30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D31" s="3">
         <v>0.05</v>
       </c>
       <c r="M31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N31" s="3">
         <v>0.35</v>
@@ -4940,12 +4955,12 @@
         <v>46000</v>
       </c>
       <c r="T31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="3:22" x14ac:dyDescent="0.25">
       <c r="M32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N32" s="3">
         <v>0.2</v>
@@ -4953,19 +4968,19 @@
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D33" s="9">
         <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N33" s="3">
         <v>0.23</v>
@@ -4973,10 +4988,10 @@
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N34" s="3">
         <v>0.04</v>
@@ -4984,7 +4999,7 @@
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="M35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N35" s="3">
         <v>0.02</v>
@@ -5027,138 +5042,138 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="135" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="135" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="132" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="117" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="116" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="116" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="132" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="96"/>
+        <v>133</v>
+      </c>
+      <c r="H4" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="110"/>
       <c r="M4" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="P4" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
       <c r="F5" s="16"/>
       <c r="G5" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="118">
+        <v>134</v>
+      </c>
+      <c r="H5" s="136">
         <v>43</v>
       </c>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118">
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136">
         <v>43</v>
       </c>
-      <c r="L5" s="118"/>
+      <c r="L5" s="136"/>
       <c r="M5" s="60"/>
       <c r="N5" s="60"/>
       <c r="O5" s="60"/>
       <c r="P5" s="69"/>
       <c r="Q5" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R5" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
       <c r="F6" s="16"/>
       <c r="G6" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="119">
+        <v>135</v>
+      </c>
+      <c r="H6" s="137">
         <v>0.3</v>
       </c>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119">
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137">
         <v>0.3</v>
       </c>
-      <c r="L6" s="119"/>
+      <c r="L6" s="137"/>
       <c r="M6" s="69"/>
       <c r="N6" s="69"/>
       <c r="O6" s="69"/>
       <c r="P6" s="69"/>
       <c r="Q6" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R6" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="96"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>68</v>
@@ -5166,22 +5181,22 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>151</v>
-      </c>
       <c r="L7" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>68</v>
@@ -5201,7 +5216,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C8">
         <v>35</v>
@@ -5468,61 +5483,61 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
+      <c r="B4" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="K5" s="96"/>
+      <c r="K5" s="110"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -5544,18 +5559,18 @@
         <v>30</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5582,7 +5597,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5610,12 +5625,12 @@
         <v>1800</v>
       </c>
       <c r="K8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -5643,16 +5658,16 @@
         <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="95"/>
+      <c r="B11" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="109"/>
       <c r="F11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G11" s="8">
         <f>E7+E8+E9</f>
@@ -5661,16 +5676,16 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G12" s="8">
         <f>C6*H6</f>
@@ -5679,7 +5694,7 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" s="7">
         <f>SUM(E6:E9)</f>
@@ -5688,7 +5703,7 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C14" s="8">
         <f>C13*Constants!$D$31</f>
@@ -5697,7 +5712,7 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2">
         <f>C12*Constants!$D$33</f>
@@ -5706,7 +5721,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="53">
         <f>SUM(C13:C15)</f>
@@ -5714,21 +5729,21 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="95"/>
+      <c r="C18" s="109"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19">
         <f>C6*J6</f>
         <v>400</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5768,68 +5783,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="M2" s="97" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" s="98"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="M2" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="112"/>
       <c r="O2" s="32"/>
       <c r="Q2" s="5"/>
       <c r="R2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="117" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>80</v>
-      </c>
       <c r="G3" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>67</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N3" s="34">
         <v>0.5</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="103"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="21" t="s">
         <v>69</v>
       </c>
@@ -5855,19 +5870,19 @@
         <v>69</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N4" s="34">
         <v>0.25</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S4" s="6"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="116" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="22">
@@ -5886,26 +5901,26 @@
         <f t="shared" ref="G5:G36" si="0">D5*$N$3+E5*$N$4+F5*$N$5</f>
         <v>6.25E-2</v>
       </c>
-      <c r="H5" s="104" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="105"/>
+      <c r="H5" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="119"/>
       <c r="M5" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N5" s="35">
         <v>0.25</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S5" s="6"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="102"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="24">
         <v>2007</v>
       </c>
@@ -5922,15 +5937,15 @@
         <f t="shared" si="0"/>
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="107"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="121"/>
       <c r="Q6" s="2"/>
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="102"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="24">
         <v>2008</v>
       </c>
@@ -5947,17 +5962,17 @@
         <f t="shared" si="0"/>
         <v>5.5E-2</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="107"/>
-      <c r="M7" s="99" t="s">
-        <v>127</v>
-      </c>
-      <c r="N7" s="100"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="121"/>
+      <c r="M7" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="114"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="102"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="24">
         <v>2009</v>
       </c>
@@ -5974,19 +5989,19 @@
         <f t="shared" si="0"/>
         <v>6.275E-2</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="107"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
       <c r="M8" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N8" s="37">
         <v>0.16800000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="102"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="24">
         <v>2010</v>
       </c>
@@ -6003,19 +6018,19 @@
         <f t="shared" si="0"/>
         <v>7.1250000000000008E-2</v>
       </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="107"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="121"/>
       <c r="M9" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N9" s="38">
         <v>0.13</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="102"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="24">
         <v>2011</v>
       </c>
@@ -6032,19 +6047,19 @@
         <f t="shared" si="0"/>
         <v>7.85E-2</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="107"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="121"/>
       <c r="M10" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N10" s="39">
         <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="102"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="24">
         <v>2012</v>
       </c>
@@ -6061,13 +6076,13 @@
         <f t="shared" si="0"/>
         <v>8.6750000000000008E-2</v>
       </c>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="107"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="102"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="24">
         <v>2013</v>
       </c>
@@ -6084,18 +6099,18 @@
         <f t="shared" si="0"/>
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="107"/>
-      <c r="M12" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="N12" s="101"/>
-      <c r="O12" s="100"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121"/>
+      <c r="M12" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" s="115"/>
+      <c r="O12" s="114"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="102"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="24">
         <v>2014</v>
       </c>
@@ -6112,22 +6127,22 @@
         <f t="shared" si="0"/>
         <v>9.9250000000000005E-2</v>
       </c>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="107"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="121"/>
       <c r="M13" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N13" s="40">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="O13" s="41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="102"/>
+      <c r="B14" s="116"/>
       <c r="C14" s="24">
         <v>2015</v>
       </c>
@@ -6144,22 +6159,22 @@
         <f t="shared" si="0"/>
         <v>0.11075000000000002</v>
       </c>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="107"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="121"/>
       <c r="M14" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N14" s="42">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="O14" s="43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="102"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="24">
         <v>2016</v>
       </c>
@@ -6176,13 +6191,13 @@
         <f t="shared" si="0"/>
         <v>0.1215</v>
       </c>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="107"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="121"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="102"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="24">
         <v>2017</v>
       </c>
@@ -6199,13 +6214,13 @@
         <f t="shared" si="0"/>
         <v>0.10600000000000001</v>
       </c>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="107"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="121"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="102"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="26">
         <v>2018</v>
       </c>
@@ -6242,7 +6257,7 @@
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="116" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="28">
@@ -6282,7 +6297,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="102"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="28">
         <v>2020</v>
       </c>
@@ -6320,7 +6335,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="102"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="28">
         <v>2021</v>
       </c>
@@ -6358,7 +6373,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="102"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="28">
         <v>2022</v>
       </c>
@@ -6396,7 +6411,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="102"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="44">
         <v>2023</v>
       </c>
@@ -6434,7 +6449,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="102"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="28">
         <v>2024</v>
       </c>
@@ -6472,7 +6487,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="102"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="28">
         <v>2025</v>
       </c>
@@ -6510,7 +6525,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="102"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="28">
         <v>2026</v>
       </c>
@@ -6548,7 +6563,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="102"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="28">
         <v>2027</v>
       </c>
@@ -6586,7 +6601,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="102"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="28">
         <v>2028</v>
       </c>
@@ -6624,7 +6639,7 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="102"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="28">
         <v>2029</v>
       </c>
@@ -6662,7 +6677,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="102"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="28">
         <v>2030</v>
       </c>
@@ -6700,7 +6715,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="102"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="28">
         <v>2031</v>
       </c>
@@ -6738,7 +6753,7 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="102"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="28">
         <v>2032</v>
       </c>
@@ -6776,7 +6791,7 @@
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="102"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="28">
         <v>2033</v>
       </c>
@@ -6814,7 +6829,7 @@
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="102"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="28">
         <v>2034</v>
       </c>
@@ -6852,7 +6867,7 @@
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="102"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="28">
         <v>2035</v>
       </c>
@@ -6890,7 +6905,7 @@
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="102"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="28">
         <v>2036</v>
       </c>
@@ -6929,7 +6944,7 @@
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="102"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="28">
         <v>2037</v>
       </c>
@@ -6967,7 +6982,7 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="102"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="44">
         <v>2038</v>
       </c>
@@ -7005,7 +7020,7 @@
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="102"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="28">
         <v>2039</v>
       </c>
@@ -7043,7 +7058,7 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="102"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="28">
         <v>2040</v>
       </c>
@@ -7081,7 +7096,7 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="102"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="28">
         <v>2041</v>
       </c>
@@ -7119,7 +7134,7 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="102"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="28">
         <v>2042</v>
       </c>
@@ -7157,7 +7172,7 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="102"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="28">
         <v>2043</v>
       </c>
@@ -7195,7 +7210,7 @@
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="102"/>
+      <c r="B43" s="116"/>
       <c r="C43" s="28">
         <v>2044</v>
       </c>
@@ -7233,7 +7248,7 @@
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="102"/>
+      <c r="B44" s="116"/>
       <c r="C44" s="28">
         <v>2045</v>
       </c>
@@ -7271,7 +7286,7 @@
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="102"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="28">
         <v>2046</v>
       </c>
@@ -7309,7 +7324,7 @@
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="102"/>
+      <c r="B46" s="116"/>
       <c r="C46" s="28">
         <v>2047</v>
       </c>
@@ -7347,7 +7362,7 @@
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="102"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="28">
         <v>2048</v>
       </c>
@@ -7385,7 +7400,7 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="102"/>
+      <c r="B48" s="116"/>
       <c r="C48" s="28">
         <v>2049</v>
       </c>
@@ -7423,7 +7438,7 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="102"/>
+      <c r="B49" s="116"/>
       <c r="C49" s="28">
         <v>2050</v>
       </c>
@@ -7461,7 +7476,7 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="102"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="28">
         <v>2051</v>
       </c>
@@ -7499,7 +7514,7 @@
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="102"/>
+      <c r="B51" s="116"/>
       <c r="C51" s="28">
         <v>2052</v>
       </c>
@@ -7537,7 +7552,7 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="102"/>
+      <c r="B52" s="116"/>
       <c r="C52" s="28">
         <v>2053</v>
       </c>
@@ -7575,7 +7590,7 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="102"/>
+      <c r="B53" s="116"/>
       <c r="C53" s="28">
         <v>2054</v>
       </c>
@@ -7613,7 +7628,7 @@
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="102"/>
+      <c r="B54" s="116"/>
       <c r="C54" s="28">
         <v>2055</v>
       </c>
@@ -7651,7 +7666,7 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="102"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="28">
         <v>2056</v>
       </c>
@@ -7689,7 +7704,7 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="102"/>
+      <c r="B56" s="116"/>
       <c r="C56" s="28">
         <v>2057</v>
       </c>
@@ -7727,7 +7742,7 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="102"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="44">
         <v>2058</v>
       </c>
@@ -7802,73 +7817,73 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="40">
         <v>0.503</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="54">
         <v>0.25</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="42">
         <v>0.247</v>
       </c>
       <c r="D4" s="43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="57" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="G6" s="71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="125"/>
+      <c r="C7" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="111"/>
-      <c r="C7" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -8160,10 +8175,10 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="108" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="109"/>
+      <c r="B20" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="123"/>
       <c r="D20" s="51">
         <v>0.85</v>
       </c>
@@ -8209,18 +8224,18 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="64">
         <v>8300</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="65">
         <v>0.1</v>
@@ -8229,43 +8244,43 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="60">
         <f>$C$2/12*C3</f>
         <v>69.166666666666671</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="19">
         <v>691.67</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="66"/>
-      <c r="C7" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="113"/>
+      <c r="C7" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="127"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -8426,7 +8441,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="19">
         <f>SUM(C9:C20)</f>
@@ -8437,7 +8452,7 @@
         <v>8300.0400000000009</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -8471,12 +8486,12 @@
   <sheetData>
     <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="77" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -8487,7 +8502,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C5" s="76">
         <v>0.75</v>
@@ -8496,13 +8511,13 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F5" s="3">
         <v>0.3</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H5" s="2">
         <v>10000</v>
@@ -8510,7 +8525,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C6" s="76">
         <v>0.15</v>
@@ -8522,13 +8537,13 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C8" s="76">
         <v>0.08</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -8541,10 +8556,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B3:J45"/>
+  <dimension ref="B3:M45"/>
   <sheetViews>
-    <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8552,51 +8567,59 @@
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="114" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="86" t="s">
-        <v>73</v>
+      <c r="D3" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>235</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="J3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="115"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" s="140"/>
+      <c r="M3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="129"/>
       <c r="C4" s="10" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="142" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="85" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="142" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="143"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
@@ -8607,25 +8630,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <f>(1+Constants!$D$28)^-B5*D5</f>
+        <f>D5/(1+Constants!$D$27)^B5</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="8">
-        <f>SUM(E5:E10)</f>
-        <v>5057.565959640091</v>
-      </c>
-      <c r="I5" s="76">
+        <v>73</v>
+      </c>
+      <c r="H5" s="2">
         <f>NPV(Constants!$D$28,D6:D10)</f>
         <v>5057.565959640091</v>
       </c>
+      <c r="I5" s="2">
+        <f>NPV(Constants!$D$28,E6:E10)</f>
+        <v>4764.8942028574611</v>
+      </c>
       <c r="J5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -8638,25 +8661,25 @@
         <v>1010.9502172257601</v>
       </c>
       <c r="E6" s="8">
-        <f>(1+Constants!$D$28)^-B6*D6</f>
-        <v>981.50506526772824</v>
+        <f>D6/(1+Constants!$D$27)^B6</f>
+        <v>991.12766394682353</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="8">
-        <f>SUM(E5:E25)</f>
-        <v>22837.989575851927</v>
-      </c>
-      <c r="I6" s="76">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2">
         <f>NPV(Constants!$D$28,D6:D25)</f>
         <v>22837.989575851912</v>
       </c>
+      <c r="I6" s="2">
+        <f>NPV(Constants!$D$28,E6:E25)</f>
+        <v>18478.410159694031</v>
+      </c>
       <c r="J6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -8669,25 +8692,25 @@
         <v>1056.8318151002288</v>
       </c>
       <c r="E7" s="8">
-        <f>(1+Constants!$D$28)^-B7*D7</f>
-        <v>996.165345555876</v>
-      </c>
-      <c r="G7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="8">
-        <f>SUM(E5:E45)</f>
-        <v>54766.122515521667</v>
-      </c>
-      <c r="I7" s="76">
+        <f>D7/(1+Constants!$D$27)^B7</f>
+        <v>1015.7937476934148</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="138">
         <f>NPV(Constants!$D$28,D6:D45)</f>
         <v>54766.122515521602</v>
       </c>
-      <c r="J7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="138">
+        <f>NPV(Constants!$D$28,E6:E45)</f>
+        <v>35844.190316733766</v>
+      </c>
+      <c r="J7" s="77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
@@ -8700,11 +8723,11 @@
         <v>1104.9284834758062</v>
       </c>
       <c r="E8" s="8">
-        <f>(1+Constants!$D$28)^-B8*D8</f>
-        <v>1011.1660858346195</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+        <f>D8/(1+Constants!$D$27)^B8</f>
+        <v>1041.1987880564473</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
@@ -8717,39 +8740,38 @@
         <v>1155.3504433462585</v>
       </c>
       <c r="E9" s="8">
-        <f>(1+Constants!$D$28)^-B9*D9</f>
-        <v>1026.5139047167997</v>
-      </c>
-      <c r="G9" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="H9" s="95"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="87">
+        <f>D9/(1+Constants!$D$27)^B9</f>
+        <v>1067.3652225431463</v>
+      </c>
+      <c r="G9" s="110" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="110"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="86">
         <v>5</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="87">
         <f>SUM(Consumption!$D$9:$D$20)</f>
         <v>8300.0400000000009</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="88">
         <f>C10*'Grid Power'!K22</f>
         <v>1208.213476528794</v>
       </c>
-      <c r="E10" s="8">
-        <f>(1+Constants!$D$28)^-B10*D10</f>
-        <v>1042.2155582650678</v>
-      </c>
-      <c r="G10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="76">
-        <f>PMT(Constants!$D$28,5,-'Analysis (Nothing)'!I5)</f>
-        <v>1104.3426474473551</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="103">
+        <f>D10/(1+Constants!$D$27)^B10</f>
+        <v>1094.3161705438426</v>
+      </c>
+      <c r="G10" s="141" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="141" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>6</v>
       </c>
@@ -8762,18 +8784,18 @@
         <v>1263.6392079362199</v>
       </c>
       <c r="E11" s="8">
-        <f>(1+Constants!$D$28)^-B11*D11</f>
-        <v>1058.2779427747871</v>
+        <f>D11/(1+Constants!$D$27)^B11</f>
+        <v>1122.07545405579</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="76">
-        <f>PMT(Constants!$D$28,20,-'Analysis (Nothing)'!I6)</f>
-        <v>1535.0716294305789</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="H11" s="2">
+        <f>PMT(Constants!$D$28,5,-'Analysis (Nothing)'!I5)</f>
+        <v>1040.4364314340303</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7</v>
       </c>
@@ -8786,18 +8808,18 @@
         <v>1321.7554022157228</v>
       </c>
       <c r="E12" s="8">
-        <f>(1+Constants!$D$28)^-B12*D12</f>
-        <v>1074.7080976138245</v>
+        <f>D12/(1+Constants!$D$27)^B12</f>
+        <v>1150.6676190368253</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="76">
-        <f>PMT(Constants!$D$28,40,-'Analysis (Nothing)'!I7)</f>
-        <v>2369.3126878618828</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H12" s="2">
+        <f>PMT(Constants!$D$28,20,-'Analysis (Nothing)'!I6)</f>
+        <v>1242.0394141488248</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>8</v>
       </c>
@@ -8810,11 +8832,18 @@
         <v>1382.6962754863248</v>
       </c>
       <c r="E13" s="8">
-        <f>(1+Constants!$D$28)^-B13*D13</f>
-        <v>1091.5132081203903</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+        <f>D13/(1+Constants!$D$27)^B13</f>
+        <v>1180.1179574080081</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="138">
+        <f>PMT(Constants!$D$28,40,-'Analysis (Nothing)'!I7)</f>
+        <v>1550.7049066602067</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>9</v>
       </c>
@@ -8827,11 +8856,12 @@
         <v>1446.602822944395</v>
       </c>
       <c r="E14" s="8">
-        <f>(1+Constants!$D$28)^-B14*D14</f>
-        <v>1108.7006085601095</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+        <f>D14/(1+Constants!$D$27)^B14</f>
+        <v>1210.4525297249754</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10</v>
       </c>
@@ -8844,11 +8874,12 @@
         <v>1513.6231631458083</v>
       </c>
       <c r="E15" s="8">
-        <f>(1+Constants!$D$28)^-B15*D15</f>
-        <v>1126.2777851435292</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+        <f>D15/(1+Constants!$D$27)^B15</f>
+        <v>1241.6981885383186</v>
+      </c>
+      <c r="G15" s="73"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11</v>
       </c>
@@ -8861,9 +8892,10 @@
         <v>1583.9128998145811</v>
       </c>
       <c r="E16" s="8">
-        <f>(1+Constants!$D$28)^-B16*D16</f>
-        <v>1144.2523791052972</v>
-      </c>
+        <f>D16/(1+Constants!$D$27)^B16</f>
+        <v>1273.8826024639402</v>
+      </c>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
@@ -8878,8 +8910,8 @@
         <v>1657.6355020711253</v>
       </c>
       <c r="E17" s="8">
-        <f>(1+Constants!$D$28)^-B17*D17</f>
-        <v>1162.632189846265</v>
+        <f>D17/(1+Constants!$D$27)^B17</f>
+        <v>1307.0342809849549</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -8895,8 +8927,8 @@
         <v>1734.962704018805</v>
       </c>
       <c r="E18" s="8">
-        <f>(1+Constants!$D$28)^-B18*D18</f>
-        <v>1181.4251781397925</v>
+        <f>D18/(1+Constants!$D$27)^B18</f>
+        <v>1341.1826000073775</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -8912,8 +8944,8 @@
         <v>1816.0749246753412</v>
       </c>
       <c r="E19" s="8">
-        <f>(1+Constants!$D$28)^-B19*D19</f>
-        <v>1200.6394694035757</v>
+        <f>D19/(1+Constants!$D$27)^B19</f>
+        <v>1376.3578281925002</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -8929,8 +8961,8 @@
         <v>1901.161709285896</v>
       </c>
       <c r="E20" s="8">
-        <f>(1+Constants!$D$28)^-B20*D20</f>
-        <v>1220.2833570383175</v>
+        <f>D20/(1+Constants!$D$27)^B20</f>
+        <v>1412.5911540895718</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -8946,8 +8978,8 @@
         <v>1990.4221931075349</v>
       </c>
       <c r="E21" s="8">
-        <f>(1+Constants!$D$28)^-B21*D21</f>
-        <v>1240.3653058346099</v>
+        <f>D21/(1+Constants!$D$27)^B21</f>
+        <v>1449.9147140930893</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -8963,8 +8995,8 @@
         <v>2084.0655888103352</v>
       </c>
       <c r="E22" s="8">
-        <f>(1+Constants!$D$28)^-B22*D22</f>
-        <v>1260.8939554494193</v>
+        <f>D22/(1+Constants!$D$27)^B22</f>
+        <v>1488.3616212497839</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -8980,8 +9012,8 @@
         <v>2182.3116986987729</v>
       </c>
       <c r="E23" s="8">
-        <f>(1+Constants!$D$28)^-B23*D23</f>
-        <v>1281.878123953589</v>
+        <f>D23/(1+Constants!$D$27)^B23</f>
+        <v>1527.9659949411005</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -8997,25 +9029,25 @@
         <v>2285.3914530184215</v>
       </c>
       <c r="E24" s="8">
-        <f>(1+Constants!$D$28)^-B24*D24</f>
-        <v>1303.3268114518078</v>
+        <f>D24/(1+Constants!$D$27)^B24</f>
+        <v>1568.7629914677998</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="87">
+      <c r="B25" s="86">
         <v>20</v>
       </c>
-      <c r="C25" s="88">
+      <c r="C25" s="87">
         <f>SUM(Consumption!$D$9:$D$20)</f>
         <v>8300.0400000000009</v>
       </c>
-      <c r="D25" s="89">
+      <c r="D25" s="88">
         <f>C25*'Grid Power'!K37</f>
         <v>2393.5474756774643</v>
       </c>
-      <c r="E25" s="8">
-        <f>(1+Constants!$D$28)^-B25*D25</f>
-        <v>1325.2492037765182</v>
+      <c r="E25" s="103">
+        <f>D25/(1+Constants!$D$27)^B25</f>
+        <v>1610.7888355640896</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -9031,8 +9063,8 @@
         <v>2507.034678780331</v>
       </c>
       <c r="E26" s="8">
-        <f>(1+Constants!$D$28)^-B26*D26</f>
-        <v>1347.6546762572775</v>
+        <f>D26/(1+Constants!$D$27)^B26</f>
+        <v>1654.08085286954</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -9048,8 +9080,8 @@
         <v>2626.1208874419963</v>
       </c>
       <c r="E27" s="8">
-        <f>(1+Constants!$D$28)^-B27*D27</f>
-        <v>1370.5527975670984</v>
+        <f>D27/(1+Constants!$D$27)^B27</f>
+        <v>1698.6775033878853</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -9065,8 +9097,8 @@
         <v>2751.0874964263717</v>
       </c>
       <c r="E28" s="8">
-        <f>(1+Constants!$D$28)^-B28*D28</f>
-        <v>1393.9533336473496</v>
+        <f>D28/(1+Constants!$D$27)^B28</f>
+        <v>1744.6184159627187</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -9082,8 +9114,8 @@
         <v>2882.2301602308967</v>
       </c>
       <c r="E29" s="8">
-        <f>(1+Constants!$D$28)^-B29*D29</f>
-        <v>1417.866251712808</v>
+        <f>D29/(1+Constants!$D$27)^B29</f>
+        <v>1791.9444238009685</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -9099,8 +9131,8 @@
         <v>3019.8595183221614</v>
       </c>
       <c r="E30" s="8">
-        <f>(1+Constants!$D$28)^-B30*D30</f>
-        <v>1442.3017243384973</v>
+        <f>D30/(1+Constants!$D$27)^B30</f>
+        <v>1840.6976010760172</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -9116,8 +9148,8 @@
         <v>3164.3019573143101</v>
       </c>
       <c r="E31" s="8">
-        <f>(1+Constants!$D$28)^-B31*D31</f>
-        <v>1467.2701336299854</v>
+        <f>D31/(1+Constants!$D$27)^B31</f>
+        <v>1890.9213006432642</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -9133,8 +9165,8 @@
         <v>3315.9004119733277</v>
       </c>
       <c r="E32" s="8">
-        <f>(1+Constants!$D$28)^-B32*D32</f>
-        <v>1492.782075478832</v>
+        <f>D32/(1+Constants!$D$27)^B32</f>
+        <v>1942.6601929019441</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -9150,8 +9182,8 @@
         <v>3475.0152070263471</v>
       </c>
       <c r="E33" s="8">
-        <f>(1+Constants!$D$28)^-B33*D33</f>
-        <v>1518.84836390493</v>
+        <f>D33/(1+Constants!$D$27)^B33</f>
+        <v>1995.9603058380428</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -9167,8 +9199,8 @@
         <v>3642.0249418560024</v>
       </c>
       <c r="E34" s="8">
-        <f>(1+Constants!$D$28)^-B34*D34</f>
-        <v>1545.4800354875047</v>
+        <f>D34/(1+Constants!$D$27)^B34</f>
+        <v>2050.869066284205</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -9184,8 +9216,8 @@
         <v>3817.3274202659391</v>
       </c>
       <c r="E35" s="8">
-        <f>(1+Constants!$D$28)^-B35*D35</f>
-        <v>1572.6883538865807</v>
+        <f>D35/(1+Constants!$D$27)^B35</f>
+        <v>2107.4353424336114</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -9201,8 +9233,8 @@
         <v>4001.3406276150395</v>
       </c>
       <c r="E36" s="8">
-        <f>(1+Constants!$D$28)^-B36*D36</f>
-        <v>1600.484814456762</v>
+        <f>D36/(1+Constants!$D$27)^B36</f>
+        <v>2165.7094876459555</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -9218,8 +9250,8 @@
         <v>4194.5037577350849</v>
       </c>
       <c r="E37" s="8">
-        <f>(1+Constants!$D$28)^-B37*D37</f>
-        <v>1628.8811489552006</v>
+        <f>D37/(1+Constants!$D$27)^B37</f>
+        <v>2225.7433855847653</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -9235,8 +9267,8 @@
         <v>4397.2782921697099</v>
       </c>
       <c r="E38" s="8">
-        <f>(1+Constants!$D$28)^-B38*D38</f>
-        <v>1657.8893303456764</v>
+        <f>D38/(1+Constants!$D$27)^B38</f>
+        <v>2287.5904967265615</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -9252,8 +9284,8 @@
         <v>4610.1491344018832</v>
       </c>
       <c r="E39" s="8">
-        <f>(1+Constants!$D$28)^-B39*D39</f>
-        <v>1687.5215777007515</v>
+        <f>D39/(1+Constants!$D$27)^B39</f>
+        <v>2351.3059062835123</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -9269,8 +9301,8 @@
         <v>4833.6258018731905</v>
       </c>
       <c r="E40" s="8">
-        <f>(1+Constants!$D$28)^-B40*D40</f>
-        <v>1717.7903612039854</v>
+        <f>D40/(1+Constants!$D$27)^B40</f>
+        <v>2416.9463735825711</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
@@ -9286,8 +9318,8 @@
         <v>5068.2436787411061</v>
       </c>
       <c r="E41" s="8">
-        <f>(1+Constants!$D$28)^-B41*D41</f>
-        <v>1748.7084072542671</v>
+        <f>D41/(1+Constants!$D$27)^B41</f>
+        <v>2484.5703829453537</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
@@ -9303,8 +9335,8 @@
         <v>5314.5653324706764</v>
       </c>
       <c r="E42" s="8">
-        <f>(1+Constants!$D$28)^-B42*D42</f>
-        <v>1780.2887036743246</v>
+        <f>D42/(1+Constants!$D$27)^B42</f>
+        <v>2554.2381961143528</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -9320,8 +9352,8 @@
         <v>5573.1818975149581</v>
       </c>
       <c r="E43" s="8">
-        <f>(1+Constants!$D$28)^-B43*D43</f>
-        <v>1812.5445050255571</v>
+        <f>D43/(1+Constants!$D$27)^B43</f>
+        <v>2626.0119062725157</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -9337,30 +9369,29 @@
         <v>5844.7145295044402</v>
       </c>
       <c r="E44" s="8">
-        <f>(1+Constants!$D$28)^-B44*D44</f>
-        <v>1845.4893380313372</v>
+        <f>D44/(1+Constants!$D$27)^B44</f>
+        <v>2699.9554937045791</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="87">
+      <c r="B45" s="86">
         <v>40</v>
       </c>
-      <c r="C45" s="88">
+      <c r="C45" s="87">
         <f>SUM(Consumption!$D$9:$D$20)</f>
         <v>8300.0400000000009</v>
       </c>
-      <c r="D45" s="89">
+      <c r="D45" s="88">
         <f>C45*'Grid Power'!K57</f>
         <v>6129.8159335401424</v>
       </c>
-      <c r="E45" s="8">
-        <f>(1+Constants!$D$28)^-B45*D45</f>
-        <v>1879.1370071110096</v>
+      <c r="E45" s="103">
+        <f>D45/(1+Constants!$D$27)^B45</f>
+        <v>2776.1348831500727</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G4:H4"/>
+  <mergeCells count="2">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="G9:H9"/>
   </mergeCells>
@@ -9376,8 +9407,8 @@
   </sheetPr>
   <dimension ref="B2:AA94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T65" sqref="T65"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9396,7 +9427,7 @@
     <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="1.140625" customWidth="1"/>
     <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
@@ -9405,114 +9436,114 @@
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F4" s="116" t="s">
+      <c r="F4" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="G4" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95" t="s">
-        <v>199</v>
-      </c>
-      <c r="N4" s="95"/>
-      <c r="P4" s="95" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109" t="s">
+        <v>197</v>
+      </c>
+      <c r="N4" s="109"/>
+      <c r="P4" s="109" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="121" t="s">
-        <v>186</v>
+      <c r="B5" s="109" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="133" t="s">
+        <v>184</v>
       </c>
       <c r="H5" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="O5" s="91"/>
+      <c r="P5" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q5" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="R5" s="50" t="s">
         <v>203</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="K5" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="M5" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="O5" s="92"/>
-      <c r="P5" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q5" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="R5" s="50" t="s">
-        <v>205</v>
       </c>
       <c r="S5" s="50" t="s">
         <v>15</v>
       </c>
       <c r="T5" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="U5" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="V5" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="U5" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="V5" s="50" t="s">
-        <v>209</v>
-      </c>
       <c r="W5" s="50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y5" s="50" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="96" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="122"/>
+        <v>105</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="134"/>
       <c r="H6" s="10" t="s">
         <v>71</v>
       </c>
@@ -9534,7 +9565,7 @@
       <c r="N6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="93"/>
+      <c r="O6" s="92"/>
       <c r="P6" s="10" t="s">
         <v>68</v>
       </c>
@@ -9556,12 +9587,12 @@
       <c r="V6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="W6" s="93" t="s">
+      <c r="W6" s="92" t="s">
         <v>68</v>
       </c>
       <c r="X6" s="77"/>
-      <c r="Y6" s="120" t="s">
-        <v>213</v>
+      <c r="Y6" s="95" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
@@ -9573,7 +9604,7 @@
         <v>57522.9303</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9641,7 +9672,7 @@
         <f>W7*(1+Constants!$D$27)^-F7</f>
         <v>-1653.9749999999999</v>
       </c>
-      <c r="Z7" s="91">
+      <c r="Z7" s="90">
         <f>IRR(Y7:Y47)</f>
         <v>3.2586147161849599E-2</v>
       </c>
@@ -9655,7 +9686,7 @@
         <v>62659.703039999993</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -9744,7 +9775,7 @@
         <v>76697.240399999995</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -9828,7 +9859,7 @@
         <v>95871.550500000012</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -9898,7 +9929,7 @@
         <f>W10*(1+Constants!$D$27)^-F10</f>
         <v>142.17035124043309</v>
       </c>
-      <c r="AA10" s="90">
+      <c r="AA10" s="89">
         <f>AA8/AA9-1</f>
         <v>3.2586147161898449E-2</v>
       </c>
@@ -9912,7 +9943,7 @@
         <v>115045.8606</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -9992,7 +10023,7 @@
         <v>129083.39796</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F12" s="79">
         <v>5</v>
@@ -10064,7 +10095,7 @@
         <v>-664.9605889781576</v>
       </c>
       <c r="AA12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
@@ -10076,7 +10107,7 @@
         <v>134220.17069999999</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -10157,7 +10188,7 @@
         <v>129083.39796</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -10237,7 +10268,7 @@
         <v>115045.8606</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -10317,7 +10348,7 @@
         <v>95871.550500000012</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F16">
         <v>9</v>
@@ -10397,7 +10428,7 @@
         <v>76697.240399999995</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -10478,7 +10509,7 @@
         <v>62659.703039999993</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F18">
         <v>11</v>
@@ -10552,14 +10583,14 @@
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19" s="84">
         <f>SUM(C7:C18)/1000</f>
         <v>1150.4586060000001</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -12600,78 +12631,78 @@
       </c>
     </row>
     <row r="50" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F50" s="95" t="s">
-        <v>225</v>
-      </c>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="95"/>
-      <c r="L50" s="95"/>
+      <c r="F50" s="109" t="s">
+        <v>222</v>
+      </c>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="109"/>
+      <c r="L50" s="109"/>
       <c r="Q50" s="76"/>
     </row>
     <row r="51" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F51" s="115" t="s">
-        <v>227</v>
-      </c>
-      <c r="G51" s="115"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="115"/>
-      <c r="J51" s="115"/>
-      <c r="K51" s="115" t="s">
-        <v>226</v>
-      </c>
-      <c r="L51" s="115"/>
+      <c r="F51" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="G51" s="129"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="129" t="s">
+        <v>223</v>
+      </c>
+      <c r="L51" s="129"/>
       <c r="Q51" s="76"/>
     </row>
     <row r="52" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F52" s="114" t="str">
+      <c r="F52" s="128" t="str">
         <f>F4</f>
         <v>Year</v>
       </c>
-      <c r="G52" s="123" t="str">
+      <c r="G52" s="130" t="str">
         <f>G5</f>
         <v>Solar efficiency</v>
       </c>
-      <c r="H52" s="114" t="s">
-        <v>222</v>
-      </c>
-      <c r="I52" s="92" t="s">
-        <v>223</v>
-      </c>
-      <c r="J52" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="K52" s="114" t="s">
-        <v>228</v>
-      </c>
-      <c r="L52" s="92" t="s">
-        <v>216</v>
+      <c r="H52" s="128" t="s">
+        <v>219</v>
+      </c>
+      <c r="I52" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="J52" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="K52" s="128" t="s">
+        <v>225</v>
+      </c>
+      <c r="L52" s="91" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F53" s="115"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="93" t="s">
+      <c r="F53" s="129"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="J53" s="93" t="s">
+      <c r="J53" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="K53" s="115"/>
-      <c r="L53" s="93" t="s">
+      <c r="K53" s="129"/>
+      <c r="L53" s="92" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="54" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F54">
-        <f>F7</f>
+        <f t="shared" ref="F54:G66" si="11">F7</f>
         <v>0</v>
       </c>
       <c r="G54" s="73">
-        <f>G7</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H54" s="3">
@@ -12697,19 +12728,19 @@
     </row>
     <row r="55" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F55">
-        <f>F8</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G55" s="73">
-        <f>G8</f>
+        <f t="shared" si="11"/>
         <v>0.995</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" ref="H55:H94" si="11">1-G55</f>
+        <f t="shared" ref="H55:H94" si="12">1-G55</f>
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="I55" s="18">
-        <f t="shared" ref="I55:I94" si="12">H55*$C$19</f>
+        <f t="shared" ref="I55:I94" si="13">H55*$C$19</f>
         <v>5.7522930300000059</v>
       </c>
       <c r="J55" s="8">
@@ -12728,19 +12759,19 @@
     </row>
     <row r="56" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F56">
-        <f>F9</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="G56" s="73">
-        <f>G9</f>
+        <f t="shared" si="11"/>
         <v>0.99002500000000004</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.9749999999999561E-3</v>
       </c>
       <c r="I56" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.475824594849952</v>
       </c>
       <c r="J56" s="8">
@@ -12748,7 +12779,7 @@
         <v>1.461199769681486</v>
       </c>
       <c r="K56">
-        <f t="shared" ref="K56:K94" si="13">F56</f>
+        <f t="shared" ref="K56:K94" si="14">F56</f>
         <v>2</v>
       </c>
       <c r="L56" s="76">
@@ -12759,19 +12790,19 @@
     </row>
     <row r="57" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F57">
-        <f>F10</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="G57" s="73">
-        <f>G10</f>
+        <f t="shared" si="11"/>
         <v>0.98507487500000002</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.4925124999999984E-2</v>
       </c>
       <c r="I57" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.170738501875732</v>
       </c>
       <c r="J57" s="8">
@@ -12779,7 +12810,7 @@
         <v>2.2858248939808949</v>
       </c>
       <c r="K57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L57" s="76">
@@ -12790,19 +12821,19 @@
     </row>
     <row r="58" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F58">
-        <f>F11</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="G58" s="73">
-        <f>G11</f>
+        <f t="shared" si="11"/>
         <v>0.98014950062500006</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9850499374999941E-2</v>
       </c>
       <c r="I58" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22.837177839366309</v>
       </c>
       <c r="J58" s="8">
@@ -12810,7 +12841,7 @@
         <v>3.1788935404515177</v>
       </c>
       <c r="K58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="L58" s="76">
@@ -12821,19 +12852,19 @@
     </row>
     <row r="59" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F59">
-        <f>F12</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="G59" s="73">
-        <f>G12</f>
+        <f t="shared" si="11"/>
         <v>0.97524875312187509</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4751246878124911E-2</v>
       </c>
       <c r="I59" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28.475284980169441</v>
       </c>
       <c r="J59" s="8">
@@ -12841,7 +12872,7 @@
         <v>4.1450671395606129</v>
       </c>
       <c r="K59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L59" s="76">
@@ -12852,19 +12883,19 @@
     </row>
     <row r="60" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F60">
-        <f>F13</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="G60" s="73">
-        <f>G13</f>
+        <f t="shared" si="11"/>
         <v>0.97037250935626573</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.9627490643734267E-2</v>
       </c>
       <c r="I60" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>34.085201585268571</v>
       </c>
       <c r="J60" s="8">
@@ -12872,7 +12903,7 @@
         <v>5.1892999471755745</v>
       </c>
       <c r="K60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="L60" s="76">
@@ -12883,19 +12914,19 @@
     </row>
     <row r="61" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F61">
-        <f>F14</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G61" s="73">
-        <f>G14</f>
+        <f t="shared" si="11"/>
         <v>0.96552064680948435</v>
       </c>
       <c r="H61" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.4479353190515649E-2</v>
       </c>
       <c r="I61" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39.667068607342294</v>
       </c>
       <c r="J61" s="8">
@@ -12903,7 +12934,7 @@
         <v>6.3168565719943981</v>
       </c>
       <c r="K61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="L61" s="76">
@@ -12914,19 +12945,19 @@
     </row>
     <row r="62" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F62">
-        <f>F15</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G62" s="73">
-        <f>G15</f>
+        <f t="shared" si="11"/>
         <v>0.96069304357543694</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.9306956424563055E-2</v>
       </c>
       <c r="I62" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45.22102629430556</v>
       </c>
       <c r="J62" s="8">
@@ -12934,7 +12965,7 @@
         <v>7.5333305177812937</v>
       </c>
       <c r="K62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="L62" s="76">
@@ -12945,19 +12976,19 @@
     </row>
     <row r="63" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F63">
-        <f>F16</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="G63" s="73">
-        <f>G16</f>
+        <f t="shared" si="11"/>
         <v>0.95588957835755972</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.4110421642440278E-2</v>
       </c>
       <c r="I63" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50.747214192834079</v>
       </c>
       <c r="J63" s="8">
@@ -12965,7 +12996,7 @@
         <v>8.8446637977549081</v>
       </c>
       <c r="K63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="L63" s="76">
@@ -12976,19 +13007,19 @@
     </row>
     <row r="64" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F64">
-        <f>F17</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="G64" s="73">
-        <f>G17</f>
+        <f t="shared" si="11"/>
         <v>0.95111013046577186</v>
       </c>
       <c r="H64" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.8889869534228136E-2</v>
       </c>
       <c r="I64" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>56.245771151869981</v>
       </c>
       <c r="J64" s="8">
@@ -12996,7 +13027,7 @@
         <v>10.257167681658002</v>
       </c>
       <c r="K64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="L64" s="76">
@@ -13007,19 +13038,19 @@
     </row>
     <row r="65" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F65">
-        <f>F18</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="G65" s="73">
-        <f>G18</f>
+        <f t="shared" si="11"/>
         <v>0.94635457981344295</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.3645420186557047E-2</v>
       </c>
       <c r="I65" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>61.71683532611069</v>
       </c>
       <c r="J65" s="8">
@@ -13027,7 +13058,7 @@
         <v>11.777544639394382</v>
       </c>
       <c r="K65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="L65" s="76">
@@ -13036,24 +13067,24 @@
       </c>
       <c r="M65" s="76"/>
       <c r="T65" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F66">
-        <f>F19</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="G66" s="73">
-        <f>G19</f>
+        <f t="shared" si="11"/>
         <v>0.94162280691437572</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.8377193085624279E-2</v>
       </c>
       <c r="I66" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>67.160544179480155</v>
       </c>
       <c r="J66" s="8">
@@ -13061,7 +13092,7 @@
         <v>13.412911548657906</v>
       </c>
       <c r="K66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="L66" s="76">
@@ -13070,24 +13101,24 @@
       </c>
       <c r="M66" s="76"/>
       <c r="P66" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F67">
-        <f t="shared" ref="F67" si="14">F20</f>
+        <f t="shared" ref="F67" si="15">F20</f>
         <v>13</v>
       </c>
       <c r="G67" s="73">
-        <f>G20</f>
+        <f t="shared" ref="G67:G94" si="16">G20</f>
         <v>0.93691469287980389</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.308530712019611E-2</v>
       </c>
       <c r="I67" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>72.577034488582697</v>
       </c>
       <c r="J67" s="8">
@@ -13095,7 +13126,7 @@
         <v>15.170824237711805</v>
       </c>
       <c r="K67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="L67" s="76">
@@ -13107,24 +13138,24 @@
         <v>65</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F68">
-        <f t="shared" ref="F68" si="15">F21</f>
+        <f t="shared" ref="F68" si="17">F21</f>
         <v>14</v>
       </c>
       <c r="G68" s="73">
-        <f>G21</f>
+        <f t="shared" si="16"/>
         <v>0.9322301194154049</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.7769880584595099E-2</v>
       </c>
       <c r="I68" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>77.966442346139758</v>
       </c>
       <c r="J68" s="8">
@@ -13132,7 +13163,7 @@
         <v>17.059303438413558</v>
       </c>
       <c r="K68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="L68" s="76">
@@ -13141,7 +13172,7 @@
       </c>
       <c r="M68" s="76"/>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q68" s="2">
         <v>50</v>
@@ -13149,25 +13180,25 @@
       <c r="T68">
         <v>1</v>
       </c>
-      <c r="U68" s="136">
-        <v>5</v>
+      <c r="U68" s="107">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="69" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F69">
-        <f t="shared" ref="F69" si="16">F22</f>
+        <f t="shared" ref="F69" si="18">F22</f>
         <v>15</v>
       </c>
       <c r="G69" s="73">
-        <f>G22</f>
+        <f t="shared" si="16"/>
         <v>0.92756896881832784</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.2431031181672156E-2</v>
       </c>
       <c r="I69" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>83.328903164409098</v>
       </c>
       <c r="J69" s="8">
@@ -13175,7 +13206,7 @@
         <v>19.086862228732258</v>
       </c>
       <c r="K69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="L69" s="76">
@@ -13186,25 +13217,25 @@
       <c r="T69">
         <v>2</v>
       </c>
-      <c r="U69" s="136">
-        <v>-5</v>
+      <c r="U69" s="107">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F70">
-        <f t="shared" ref="F70" si="17">F23</f>
+        <f t="shared" ref="F70" si="19">F23</f>
         <v>16</v>
       </c>
       <c r="G70" s="73">
-        <f>G23</f>
+        <f t="shared" si="16"/>
         <v>0.92293112397423616</v>
       </c>
       <c r="H70" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.7068876025763844E-2</v>
       </c>
       <c r="I70" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>88.664551678587102</v>
       </c>
       <c r="J70" s="8">
@@ -13212,7 +13243,7 @@
         <v>21.262535048384066</v>
       </c>
       <c r="K70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="L70" s="76">
@@ -13224,33 +13255,33 @@
         <v>65</v>
       </c>
       <c r="Q70" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="R70" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="T70">
         <v>3</v>
       </c>
-      <c r="U70" s="136">
-        <v>-5</v>
+      <c r="U70" s="107">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F71">
-        <f t="shared" ref="F71" si="18">F24</f>
+        <f t="shared" ref="F71" si="20">F24</f>
         <v>17</v>
       </c>
       <c r="G71" s="73">
-        <f>G24</f>
+        <f t="shared" si="16"/>
         <v>0.91831646835436498</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.1683531645635021E-2</v>
       </c>
       <c r="I71" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>93.973521950194169</v>
       </c>
       <c r="J71" s="8">
@@ -13258,7 +13289,7 @@
         <v>23.595908375828589</v>
       </c>
       <c r="K71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="L71" s="76">
@@ -13279,25 +13310,25 @@
       <c r="T71">
         <v>4</v>
       </c>
-      <c r="U71" s="136">
-        <v>-5</v>
+      <c r="U71" s="107">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F72">
-        <f t="shared" ref="F72" si="19">F25</f>
+        <f t="shared" ref="F72" si="21">F25</f>
         <v>18</v>
       </c>
       <c r="G72" s="73">
-        <f>G25</f>
+        <f t="shared" si="16"/>
         <v>0.91372488601259316</v>
       </c>
       <c r="H72" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.6275113987406837E-2</v>
       </c>
       <c r="I72" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>99.255947370443181</v>
       </c>
       <c r="J72" s="8">
@@ -13305,7 +13336,7 @@
         <v>26.097153159737527</v>
       </c>
       <c r="K72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="L72" s="76">
@@ -13326,25 +13357,25 @@
       <c r="T72">
         <v>5</v>
       </c>
-      <c r="U72" s="135">
-        <v>-5</v>
+      <c r="U72" s="106">
+        <v>0.05</v>
       </c>
     </row>
     <row r="73" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F73">
-        <f t="shared" ref="F73" si="20">F26</f>
+        <f t="shared" ref="F73" si="22">F26</f>
         <v>19</v>
       </c>
       <c r="G73" s="73">
-        <f>G26</f>
+        <f t="shared" si="16"/>
         <v>0.90915626158253016</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.0843738417469844E-2</v>
       </c>
       <c r="I73" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>104.51196066359101</v>
       </c>
       <c r="J73" s="8">
@@ -13352,7 +13383,7 @@
         <v>28.77705910318123</v>
       </c>
       <c r="K73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="L73" s="76">
@@ -13373,19 +13404,19 @@
     </row>
     <row r="74" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F74">
-        <f t="shared" ref="F74" si="21">F27</f>
+        <f t="shared" ref="F74" si="23">F27</f>
         <v>20</v>
       </c>
       <c r="G74" s="73">
-        <f>G27</f>
+        <f t="shared" si="16"/>
         <v>0.90461048027461755</v>
       </c>
       <c r="H74" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.5389519725382454E-2</v>
       </c>
       <c r="I74" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>109.74169389027301</v>
       </c>
       <c r="J74" s="8">
@@ -13393,7 +13424,7 @@
         <v>31.647070904192262</v>
       </c>
       <c r="K74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="L74" s="76">
@@ -13412,27 +13443,27 @@
         <v>8.8585014918591067</v>
       </c>
       <c r="T74" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U74" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F75">
-        <f t="shared" ref="F75" si="22">F28</f>
+        <f t="shared" ref="F75" si="24">F28</f>
         <v>21</v>
       </c>
       <c r="G75" s="73">
-        <f>G28</f>
+        <f t="shared" si="16"/>
         <v>0.90008742787324447</v>
       </c>
       <c r="H75" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.9912572126755528E-2</v>
       </c>
       <c r="I75" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>114.94527845082163</v>
       </c>
       <c r="J75" s="8">
@@ -13440,7 +13471,7 @@
         <v>34.719326562073348</v>
       </c>
       <c r="K75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="L75" s="76">
@@ -13459,29 +13490,29 @@
         <v>8.1578340993844467</v>
       </c>
       <c r="T75" s="53">
-        <f>NPV(5%,U68:U70)</f>
-        <v>-4.0924306230428673</v>
-      </c>
-      <c r="U75" s="134">
+        <f>NPV(5%,U68:U72)</f>
+        <v>-8.4427392956246718E-3</v>
+      </c>
+      <c r="U75" s="105">
         <f>IRR(U68:U72)</f>
-        <v>0.92756197548290231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F76">
-        <f t="shared" ref="F76" si="23">F29</f>
+        <f t="shared" ref="F76" si="25">F29</f>
         <v>22</v>
       </c>
       <c r="G76" s="73">
-        <f>G29</f>
+        <f t="shared" si="16"/>
         <v>0.89558699073387826</v>
       </c>
       <c r="H76" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.10441300926612174</v>
       </c>
       <c r="I76" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>120.12284508856752</v>
       </c>
       <c r="J76" s="8">
@@ -13489,7 +13520,7 @@
         <v>38.006697864835154</v>
       </c>
       <c r="K76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="L76" s="76">
@@ -13510,19 +13541,19 @@
     </row>
     <row r="77" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F77">
-        <f t="shared" ref="F77" si="24">F30</f>
+        <f t="shared" ref="F77" si="26">F30</f>
         <v>23</v>
       </c>
       <c r="G77" s="73">
-        <f>G30</f>
+        <f t="shared" si="16"/>
         <v>0.89110905578020883</v>
       </c>
       <c r="H77" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.10889094421979117</v>
       </c>
       <c r="I77" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>125.27452389312472</v>
       </c>
       <c r="J77" s="8">
@@ -13530,7 +13561,7 @@
         <v>41.522833179495777</v>
       </c>
       <c r="K77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="L77" s="76">
@@ -13551,19 +13582,19 @@
     </row>
     <row r="78" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F78">
-        <f t="shared" ref="F78" si="25">F31</f>
+        <f t="shared" ref="F78" si="27">F31</f>
         <v>24</v>
       </c>
       <c r="G78" s="73">
-        <f>G31</f>
+        <f t="shared" si="16"/>
         <v>0.88665351050130781</v>
       </c>
       <c r="H78" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.11334648949869219</v>
       </c>
       <c r="I78" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>130.40044430365907</v>
       </c>
       <c r="J78" s="8">
@@ -13571,7 +13602,7 @@
         <v>45.282202673663662</v>
       </c>
       <c r="K78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="L78" s="76">
@@ -13592,19 +13623,19 @@
     </row>
     <row r="79" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F79">
-        <f t="shared" ref="F79" si="26">F32</f>
+        <f t="shared" ref="F79" si="28">F32</f>
         <v>25</v>
       </c>
       <c r="G79" s="73">
-        <f>G32</f>
+        <f t="shared" si="16"/>
         <v>0.8822202429488013</v>
       </c>
       <c r="H79" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1177797570511987</v>
       </c>
       <c r="I79" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>135.50073511214075</v>
       </c>
       <c r="J79" s="8">
@@ -13612,7 +13643,7 @@
         <v>49.300146103879996</v>
       </c>
       <c r="K79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="L79" s="76">
@@ -13632,28 +13663,28 @@
       </c>
     </row>
     <row r="80" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F80" s="87">
-        <f t="shared" ref="F80" si="27">F33</f>
+      <c r="F80" s="86">
+        <f t="shared" ref="F80" si="29">F33</f>
         <v>26</v>
       </c>
-      <c r="G80" s="129">
-        <f>G33</f>
+      <c r="G80" s="100">
+        <f t="shared" si="16"/>
         <v>0.87780914173405733</v>
       </c>
-      <c r="H80" s="130">
-        <f t="shared" si="11"/>
+      <c r="H80" s="101">
+        <f t="shared" si="12"/>
         <v>0.12219085826594267</v>
       </c>
-      <c r="I80" s="131">
-        <f t="shared" si="12"/>
+      <c r="I80" s="102">
+        <f t="shared" si="13"/>
         <v>140.57552446657999</v>
       </c>
-      <c r="J80" s="132">
+      <c r="J80" s="103">
         <f>I80*'Grid Power'!K43</f>
         <v>53.592923313632795</v>
       </c>
       <c r="K80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="L80" s="76">
@@ -13674,19 +13705,19 @@
     </row>
     <row r="81" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F81">
-        <f t="shared" ref="F81" si="28">F34</f>
+        <f t="shared" ref="F81" si="30">F34</f>
         <v>27</v>
       </c>
       <c r="G81" s="73">
-        <f>G34</f>
+        <f t="shared" si="16"/>
         <v>0.87342009602538706</v>
       </c>
       <c r="H81" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12657990397461294</v>
       </c>
       <c r="I81" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>145.62493987424708</v>
       </c>
       <c r="J81" s="8">
@@ -13694,7 +13725,7 @@
         <v>58.177767591795565</v>
       </c>
       <c r="K81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="L81" s="76">
@@ -13705,19 +13736,19 @@
     </row>
     <row r="82" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F82">
-        <f t="shared" ref="F82" si="29">F35</f>
+        <f t="shared" ref="F82" si="31">F35</f>
         <v>28</v>
       </c>
       <c r="G82" s="73">
-        <f>G35</f>
+        <f t="shared" si="16"/>
         <v>0.86905299554526017</v>
       </c>
       <c r="H82" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13094700445473983</v>
       </c>
       <c r="I82" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>150.6491082048758</v>
       </c>
       <c r="J82" s="8">
@@ -13725,7 +13756,7 @@
         <v>63.07294205050831</v>
       </c>
       <c r="K82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="L82" s="76">
@@ -13736,19 +13767,19 @@
     </row>
     <row r="83" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F83">
-        <f t="shared" ref="F83" si="30">F36</f>
+        <f t="shared" ref="F83" si="32">F36</f>
         <v>29</v>
       </c>
       <c r="G83" s="73">
-        <f>G36</f>
+        <f t="shared" si="16"/>
         <v>0.86470773056753381</v>
       </c>
       <c r="H83" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13529226943246619</v>
       </c>
       <c r="I83" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>155.64815569385149</v>
       </c>
       <c r="J83" s="8">
@@ -13756,7 +13787,7 @@
         <v>68.297799190232027</v>
       </c>
       <c r="K83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="L83" s="76">
@@ -13767,52 +13798,52 @@
     </row>
     <row r="84" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F84">
-        <f t="shared" ref="F84" si="31">F37</f>
+        <f t="shared" ref="F84" si="33">F37</f>
         <v>30</v>
       </c>
       <c r="G84" s="73">
-        <f>G37</f>
+        <f t="shared" si="16"/>
         <v>0.86038419191469617</v>
       </c>
       <c r="H84" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13961580808530383</v>
       </c>
       <c r="I84" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>160.6222079453822</v>
       </c>
       <c r="J84" s="8">
         <f>I84*'Grid Power'!K47</f>
         <v>73.872843828892996</v>
       </c>
-      <c r="K84" s="87">
-        <f t="shared" si="13"/>
+      <c r="K84" s="86">
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
-      <c r="L84" s="133">
+      <c r="L84" s="104">
         <f>PMT(3%,K84,-NPV(3%,$J$54:J84))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K84</f>
         <v>53.744538423099655</v>
       </c>
       <c r="M84" s="76" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F85">
-        <f t="shared" ref="F85" si="32">F38</f>
+        <f t="shared" ref="F85" si="34">F38</f>
         <v>31</v>
       </c>
       <c r="G85" s="73">
-        <f>G38</f>
+        <f t="shared" si="16"/>
         <v>0.85608227095512268</v>
       </c>
       <c r="H85" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14391772904487732</v>
       </c>
       <c r="I85" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>165.5713899356553</v>
       </c>
       <c r="J85" s="8">
@@ -13820,7 +13851,7 @@
         <v>79.819799581716396</v>
       </c>
       <c r="K85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="L85" s="76">
@@ -13831,19 +13862,19 @@
     </row>
     <row r="86" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F86">
-        <f t="shared" ref="F86" si="33">F39</f>
+        <f t="shared" ref="F86" si="35">F39</f>
         <v>32</v>
       </c>
       <c r="G86" s="73">
-        <f>G39</f>
+        <f t="shared" si="16"/>
         <v>0.85180185960034704</v>
       </c>
       <c r="H86" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14819814039965296</v>
       </c>
       <c r="I86" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>170.49582601597703</v>
       </c>
       <c r="J86" s="8">
@@ -13851,7 +13882,7 @@
         <v>86.161679088554123</v>
       </c>
       <c r="K86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="L86" s="76">
@@ -13862,19 +13893,19 @@
     </row>
     <row r="87" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F87">
-        <f t="shared" ref="F87" si="34">F40</f>
+        <f t="shared" ref="F87" si="36">F40</f>
         <v>33</v>
       </c>
       <c r="G87" s="73">
-        <f>G40</f>
+        <f t="shared" si="16"/>
         <v>0.84754285030234533</v>
       </c>
       <c r="H87" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15245714969765467</v>
       </c>
       <c r="I87" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>175.39563991589714</v>
       </c>
       <c r="J87" s="8">
@@ -13882,7 +13913,7 @@
         <v>92.922858196272472</v>
       </c>
       <c r="K87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>33</v>
       </c>
       <c r="L87" s="76">
@@ -13893,19 +13924,19 @@
     </row>
     <row r="88" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F88">
-        <f t="shared" ref="F88" si="35">F41</f>
+        <f t="shared" ref="F88" si="37">F41</f>
         <v>34</v>
       </c>
       <c r="G88" s="73">
-        <f>G41</f>
+        <f t="shared" si="16"/>
         <v>0.84330513605083357</v>
       </c>
       <c r="H88" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15669486394916643</v>
       </c>
       <c r="I88" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>180.2709547463177</v>
       </c>
       <c r="J88" s="8">
@@ -13913,7 +13944,7 @@
         <v>100.1291543151042</v>
       </c>
       <c r="K88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="L88" s="76">
@@ -13924,19 +13955,19 @@
     </row>
     <row r="89" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F89">
-        <f t="shared" ref="F89" si="36">F42</f>
+        <f t="shared" ref="F89" si="38">F42</f>
         <v>35</v>
       </c>
       <c r="G89" s="73">
-        <f>G42</f>
+        <f t="shared" si="16"/>
         <v>0.83908861037057936</v>
       </c>
       <c r="H89" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16091138962942064</v>
       </c>
       <c r="I89" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>185.12189300258615</v>
       </c>
       <c r="J89" s="8">
@@ -13944,7 +13975,7 @@
         <v>107.80790917982425</v>
       </c>
       <c r="K89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
       <c r="L89" s="76">
@@ -13955,19 +13986,19 @@
     </row>
     <row r="90" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F90">
-        <f t="shared" ref="F90" si="37">F43</f>
+        <f t="shared" ref="F90" si="39">F43</f>
         <v>36</v>
       </c>
       <c r="G90" s="73">
-        <f>G43</f>
+        <f t="shared" si="16"/>
         <v>0.83489316731872643</v>
       </c>
       <c r="H90" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16510683268127357</v>
       </c>
       <c r="I90" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>189.94857656757327</v>
       </c>
       <c r="J90" s="8">
@@ -13975,7 +14006,7 @@
         <v>115.98807625920769</v>
       </c>
       <c r="K90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="L90" s="76">
@@ -13986,19 +14017,19 @@
     </row>
     <row r="91" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F91">
-        <f t="shared" ref="F91" si="38">F44</f>
+        <f t="shared" ref="F91" si="40">F44</f>
         <v>37</v>
       </c>
       <c r="G91" s="73">
-        <f>G44</f>
+        <f t="shared" si="16"/>
         <v>0.83071870148213278</v>
       </c>
       <c r="H91" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16928129851786722</v>
       </c>
       <c r="I91" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>194.75112671473542</v>
       </c>
       <c r="J91" s="8">
@@ -14006,7 +14037,7 @@
         <v>124.70031307050768</v>
       </c>
       <c r="K91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="L91" s="76">
@@ -14017,19 +14048,19 @@
     </row>
     <row r="92" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F92">
-        <f t="shared" ref="F92" si="39">F45</f>
+        <f t="shared" ref="F92" si="41">F45</f>
         <v>38</v>
       </c>
       <c r="G92" s="73">
-        <f>G45</f>
+        <f t="shared" si="16"/>
         <v>0.82656510797472216</v>
       </c>
       <c r="H92" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17343489202527784</v>
       </c>
       <c r="I92" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>199.52966411116168</v>
       </c>
       <c r="J92" s="8">
@@ -14037,7 +14068,7 @@
         <v>133.97707866968906</v>
       </c>
       <c r="K92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="L92" s="76">
@@ -14048,19 +14079,19 @@
     </row>
     <row r="93" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F93">
-        <f t="shared" ref="F93" si="40">F46</f>
+        <f t="shared" ref="F93" si="42">F46</f>
         <v>39</v>
       </c>
       <c r="G93" s="73">
-        <f>G46</f>
+        <f t="shared" si="16"/>
         <v>0.82243228243484856</v>
       </c>
       <c r="H93" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17756771756515144</v>
       </c>
       <c r="I93" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>204.28430882060587</v>
       </c>
       <c r="J93" s="8">
@@ -14068,7 +14099,7 @@
         <v>143.85273660290397</v>
       </c>
       <c r="K93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="L93" s="76">
@@ -14079,30 +14110,30 @@
     </row>
     <row r="94" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F94" s="77">
-        <f t="shared" ref="F94:G94" si="41">F47</f>
+        <f t="shared" ref="F94" si="43">F47</f>
         <v>40</v>
       </c>
-      <c r="G94" s="125">
-        <f>G47</f>
+      <c r="G94" s="96">
+        <f t="shared" si="16"/>
         <v>0.81832012102267426</v>
       </c>
-      <c r="H94" s="126">
-        <f t="shared" si="11"/>
+      <c r="H94" s="97">
+        <f t="shared" si="12"/>
         <v>0.18167987897732574</v>
       </c>
       <c r="I94" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>209.01518030650291</v>
       </c>
-      <c r="J94" s="127">
+      <c r="J94" s="98">
         <f>I94*'Grid Power'!K57</f>
         <v>154.36366362024364</v>
       </c>
       <c r="K94" s="77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="L94" s="128">
+      <c r="L94" s="99">
         <f>PMT(3%,K94,-NPV(3%,$J$54:J94))+(Configurations!$D$6*Configurations!$C$6*(1+Constants!$D$31))/'Analysis (A)'!K94</f>
         <v>58.836889122090653</v>
       </c>
@@ -14110,13 +14141,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F50:L50"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:K53"/>
     <mergeCell ref="P4:W4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="F4:F6"/>
@@ -14125,6 +14149,13 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:K53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14148,22 +14179,22 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
